--- a/work/20260213/create-mapping-info/mapping-v5.xlsx
+++ b/work/20260213/create-mapping-info/mapping-v5.xlsx
@@ -864,13 +864,13 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>about, adaptor</t>
+          <t>adaptor</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>about/about.json, features/adapters/adaptors.json</t>
+          <t>features/adapters/adaptors.json</t>
         </is>
       </c>
     </row>
@@ -1742,13 +1742,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1773,13 +1773,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1804,13 +1804,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1835,13 +1835,13 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1866,13 +1866,13 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1897,13 +1897,13 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1928,13 +1928,13 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1959,13 +1959,13 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -1990,13 +1990,13 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -2021,13 +2021,13 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -2052,13 +2052,13 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2083,13 +2083,13 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2114,13 +2114,13 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2145,13 +2145,13 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2176,13 +2176,13 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2207,13 +2207,13 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2238,13 +2238,13 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2269,13 +2269,13 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2300,13 +2300,13 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2331,13 +2331,13 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2362,13 +2362,13 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2393,13 +2393,13 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2424,13 +2424,13 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2455,13 +2455,13 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2486,13 +2486,13 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2517,13 +2517,13 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2548,13 +2548,13 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2579,13 +2579,13 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2610,13 +2610,13 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2641,13 +2641,13 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2672,13 +2672,13 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2703,13 +2703,13 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2734,13 +2734,13 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -2765,13 +2765,13 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -2796,13 +2796,13 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -2827,13 +2827,13 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -2858,13 +2858,13 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -2889,13 +2889,13 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -2920,13 +2920,13 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -2951,13 +2951,13 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/dbless-loop-handler.json</t>
         </is>
       </c>
     </row>
@@ -2982,13 +2982,13 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/batch.json</t>
         </is>
       </c>
     </row>
@@ -3013,13 +3013,13 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/loop-handler.json</t>
         </is>
       </c>
     </row>
@@ -3044,13 +3044,13 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/process-resident-handler.json</t>
         </is>
       </c>
     </row>
@@ -3075,13 +3075,13 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/serviceavailabilitycheckhandler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3106,13 +3106,13 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/database-connection-management-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3137,13 +3137,13 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/file-record-writer-dispose-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -3168,13 +3168,13 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/global-error-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3199,13 +3199,13 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/common.json</t>
         </is>
       </c>
     </row>
@@ -3230,13 +3230,13 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/permission-check-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3261,13 +3261,13 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/request-handler-entry.json</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3292,13 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/request-path-java-package-mapping.json</t>
         </is>
       </c>
     </row>
@@ -3323,13 +3323,13 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/thread-context-clear-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3354,13 +3354,13 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/thread-context-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3385,13 +3385,13 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/transaction-management-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3416,13 +3416,13 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging-error-handler.json</t>
         </is>
       </c>
     </row>
@@ -3447,13 +3447,13 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging-request-parsing-handler.json</t>
         </is>
       </c>
     </row>
@@ -3478,13 +3478,13 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging-response-building-handler.json</t>
         </is>
       </c>
     </row>
@@ -3509,13 +3509,13 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging.json</t>
         </is>
       </c>
     </row>
@@ -3540,13 +3540,13 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/handlers.json</t>
         </is>
       </c>
     </row>
@@ -3571,13 +3571,13 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/mom-messaging.json</t>
         </is>
       </c>
     </row>
@@ -3602,13 +3602,13 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/message-reply-handler.json</t>
         </is>
       </c>
     </row>
@@ -3633,13 +3633,13 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/message-resend-handler.json</t>
         </is>
       </c>
     </row>
@@ -3664,13 +3664,13 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/messaging-context-handler.json</t>
         </is>
       </c>
     </row>
@@ -3695,13 +3695,13 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/body-convert-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3726,13 +3726,13 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/cors-preflight-request-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3757,13 +3757,13 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/rest.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3788,13 +3788,13 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/jaxrs-access-log-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3819,13 +3819,13 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/jaxrs-bean-validation-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3850,13 +3850,13 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/jaxrs-response-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -3881,13 +3881,13 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/data-read-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -3912,13 +3912,13 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/duplicate-process-check-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -3943,13 +3943,13 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/standalone.json</t>
         </is>
       </c>
     </row>
@@ -3974,13 +3974,13 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/main.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -4005,13 +4005,13 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/multi-thread-execution-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -4036,13 +4036,13 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/process-stop-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -4067,13 +4067,13 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/request-thread-loop-handler.json</t>
         </is>
       </c>
     </row>
@@ -4098,13 +4098,13 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/retry-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -4129,13 +4129,13 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/status-code-convert-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -4700,13 +4700,13 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/injectform.json</t>
         </is>
       </c>
     </row>
@@ -4731,13 +4731,13 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/web-interceptor.json</t>
         </is>
       </c>
     </row>
@@ -4762,13 +4762,13 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/on-double-submission.json</t>
         </is>
       </c>
     </row>
@@ -4793,13 +4793,13 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/on-error.json</t>
         </is>
       </c>
     </row>
@@ -4824,13 +4824,13 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/on-errors.json</t>
         </is>
       </c>
     </row>
@@ -4855,13 +4855,13 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/use-token.json</t>
         </is>
       </c>
     </row>
@@ -4917,13 +4917,13 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/permission-check.json</t>
+          <t>features/libraries/permission-check.json</t>
         </is>
       </c>
     </row>
@@ -4948,13 +4948,13 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, rest</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/role-check.json</t>
+          <t>features/libraries/role-check.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -4979,13 +4979,13 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/bean-util.json</t>
+          <t>features/libraries/bean-util.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5010,13 +5010,13 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/code.json</t>
+          <t>features/libraries/code.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5041,13 +5041,13 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/data-converter.json</t>
+          <t>features/libraries/data-converter.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5072,13 +5072,13 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/data-bind.json</t>
+          <t>features/libraries/data-bind.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5103,13 +5103,13 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/data-format.json</t>
+          <t>features/libraries/data-format.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5134,13 +5134,13 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/format-definition.json</t>
+          <t>features/libraries/format-definition.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5165,13 +5165,13 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/multi-format-example.json</t>
+          <t>features/libraries/multi-format-example.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5196,13 +5196,13 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/functional-comparison.json</t>
+          <t>features/libraries/functional-comparison.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5227,13 +5227,13 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/database.json</t>
+          <t>features/libraries/database.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5258,13 +5258,13 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/functional-comparison.json</t>
+          <t>features/libraries/functional-comparison.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5289,13 +5289,13 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/generator.json</t>
+          <t>features/libraries/generator.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5320,13 +5320,13 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/universal-dao.json</t>
+          <t>features/libraries/universal-dao.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5351,13 +5351,13 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/database-management.json</t>
+          <t>features/libraries/database-management.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5382,13 +5382,13 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/date.json</t>
+          <t>features/libraries/date.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5413,13 +5413,13 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/db-double-submit.json</t>
+          <t>features/libraries/db-double-submit.json</t>
         </is>
       </c>
     </row>
@@ -5444,13 +5444,13 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/exclusive-control.json</t>
+          <t>features/libraries/exclusive-control.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5475,13 +5475,13 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/file-path-management.json</t>
+          <t>features/libraries/file-path-management.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -5506,13 +5506,13 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/format.json</t>
+          <t>features/libraries/format.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5537,13 +5537,13 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/libraries.json</t>
+          <t>features/libraries/libraries.json</t>
         </is>
       </c>
     </row>
@@ -5568,13 +5568,13 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/log.json</t>
+          <t>features/libraries/log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5599,13 +5599,13 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/failure-log.json</t>
+          <t>features/libraries/failure-log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5630,13 +5630,13 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/http-access-log.json</t>
+          <t>features/libraries/http-access-log.json</t>
         </is>
       </c>
     </row>
@@ -5661,13 +5661,13 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, rest</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/jaxrs-access-log.json</t>
+          <t>features/libraries/jaxrs-access-log.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5692,13 +5692,13 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/messaging-log.json</t>
+          <t>features/libraries/messaging-log.json</t>
         </is>
       </c>
     </row>
@@ -5723,13 +5723,13 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/performance-log.json</t>
+          <t>features/libraries/performance-log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5754,13 +5754,13 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/sql-log.json</t>
+          <t>features/libraries/sql-log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5785,13 +5785,13 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/mail.json</t>
+          <t>features/libraries/mail.json</t>
         </is>
       </c>
     </row>
@@ -5816,13 +5816,13 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/message.json</t>
+          <t>features/libraries/message.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5847,13 +5847,13 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/permission-check.json</t>
+          <t>features/libraries/permission-check.json</t>
         </is>
       </c>
     </row>
@@ -5878,13 +5878,13 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/repository.json</t>
+          <t>features/libraries/repository.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -5909,13 +5909,13 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/service-availability.json</t>
+          <t>features/libraries/service-availability.json</t>
         </is>
       </c>
     </row>
@@ -5940,13 +5940,13 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/session-store.json</t>
+          <t>features/libraries/session-store.json</t>
         </is>
       </c>
     </row>
@@ -5971,13 +5971,13 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/create-example.json</t>
+          <t>features/libraries/create-example.json</t>
         </is>
       </c>
     </row>
@@ -6002,13 +6002,13 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/update-example.json</t>
+          <t>features/libraries/update-example.json</t>
         </is>
       </c>
     </row>
@@ -6033,13 +6033,13 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/stateless-web-app.json</t>
+          <t>features/libraries/stateless-web-app.json</t>
         </is>
       </c>
     </row>
@@ -6064,13 +6064,13 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/static-data-cache.json</t>
+          <t>features/libraries/static-data-cache.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6095,13 +6095,13 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/system-messaging.json</t>
+          <t>features/libraries/system-messaging.json</t>
         </is>
       </c>
     </row>
@@ -6126,13 +6126,13 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/http-system-messaging.json</t>
+          <t>features/libraries/http-system-messaging.json</t>
         </is>
       </c>
     </row>
@@ -6157,13 +6157,13 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/mom-system-messaging.json</t>
+          <t>features/libraries/mom-system-messaging.json</t>
         </is>
       </c>
     </row>
@@ -6188,13 +6188,13 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/tag.json</t>
+          <t>features/libraries/tag.json</t>
         </is>
       </c>
     </row>
@@ -6219,13 +6219,13 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/tag-reference.json</t>
+          <t>features/libraries/tag-reference.json</t>
         </is>
       </c>
     </row>
@@ -6250,13 +6250,13 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/transaction.json</t>
+          <t>features/libraries/transaction.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6281,13 +6281,13 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/utility.json</t>
+          <t>features/libraries/utility.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6312,13 +6312,13 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/validation.json</t>
+          <t>features/libraries/validation.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6343,13 +6343,13 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/bean-validation.json</t>
+          <t>features/libraries/bean-validation.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6374,13 +6374,13 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/functional-comparison.json</t>
+          <t>features/libraries/functional-comparison.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6405,13 +6405,13 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/nablarch-validation.json</t>
+          <t>features/libraries/nablarch-validation.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -6969,13 +6969,13 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -7000,13 +7000,13 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -7031,13 +7031,13 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -7062,13 +7062,13 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -7093,13 +7093,13 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -7124,13 +7124,13 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -7155,13 +7155,13 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -7865,13 +7865,13 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -7896,13 +7896,13 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -7927,13 +7927,13 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -7958,13 +7958,13 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -7989,13 +7989,13 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8020,13 +8020,13 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8051,13 +8051,13 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8082,13 +8082,13 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8113,13 +8113,13 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8144,13 +8144,13 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8175,13 +8175,13 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8206,13 +8206,13 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8237,13 +8237,13 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8268,13 +8268,13 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8299,13 +8299,13 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8330,13 +8330,13 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -8423,13 +8423,13 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8454,13 +8454,13 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8547,13 +8547,13 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8578,13 +8578,13 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8609,13 +8609,13 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8640,13 +8640,13 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8702,13 +8702,13 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8733,13 +8733,13 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8764,13 +8764,13 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8795,13 +8795,13 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8826,13 +8826,13 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -8857,13 +8857,13 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/development-tools.json</t>
+          <t>features/tools/development-tools.json</t>
         </is>
       </c>
     </row>
@@ -8888,13 +8888,13 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/java-static-analysis.json</t>
+          <t>features/tools/java-static-analysis.json</t>
         </is>
       </c>
     </row>
@@ -8981,13 +8981,13 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/01-entityunittest.json</t>
+          <t>features/tools/01-entityunittest.json</t>
         </is>
       </c>
     </row>
@@ -9043,13 +9043,13 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/01-classunittest.json</t>
+          <t>features/tools/01-classunittest.json</t>
         </is>
       </c>
     </row>
@@ -9291,13 +9291,13 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/02-requestunittest.json</t>
+          <t>features/tools/02-requestunittest.json</t>
         </is>
       </c>
     </row>
@@ -9570,13 +9570,13 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/03-dealunittest.json</t>
+          <t>features/tools/03-dealunittest.json</t>
         </is>
       </c>
     </row>
@@ -9694,13 +9694,13 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/05-unittestguide.json</t>
+          <t>features/tools/05-unittestguide.json</t>
         </is>
       </c>
     </row>
@@ -10066,13 +10066,13 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/06-testfwguide.json</t>
+          <t>features/tools/06-testfwguide.json</t>
         </is>
       </c>
     </row>
@@ -10159,13 +10159,13 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/01-httpdumptool.json</t>
+          <t>features/tools/01-httpdumptool.json</t>
         </is>
       </c>
     </row>
@@ -10252,13 +10252,13 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/02-masterdatasetup.json</t>
+          <t>features/tools/02-masterdatasetup.json</t>
         </is>
       </c>
     </row>
@@ -10283,13 +10283,13 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/03-htmlchecktool.json</t>
+          <t>features/tools/03-htmlchecktool.json</t>
         </is>
       </c>
     </row>
@@ -10314,13 +10314,13 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/08-testtools.json</t>
+          <t>features/tools/08-testtools.json</t>
         </is>
       </c>
     </row>
@@ -10345,13 +10345,13 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/testing-framework.json</t>
+          <t>features/tools/testing-framework.json</t>
         </is>
       </c>
     </row>
@@ -10438,13 +10438,13 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/jspstaticanalysis.json</t>
+          <t>features/tools/jspstaticanalysis.json</t>
         </is>
       </c>
     </row>
@@ -10531,13 +10531,13 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/toolbox.json</t>
+          <t>features/tools/toolbox.json</t>
         </is>
       </c>
     </row>
@@ -10748,13 +10748,13 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/doc.json</t>
+          <t>features/tools/doc.json</t>
         </is>
       </c>
     </row>
@@ -12453,13 +12453,13 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/reference-jsp-widgets.json</t>
+          <t>features/tools/reference-jsp-widgets.json</t>
         </is>
       </c>
     </row>
@@ -12918,13 +12918,13 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/reference-ui-plugin.json</t>
+          <t>features/tools/reference-ui-plugin.json</t>
         </is>
       </c>
     </row>
@@ -12949,13 +12949,13 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/reference-ui-standard.json</t>
+          <t>features/tools/reference-ui-standard.json</t>
         </is>
       </c>
     </row>
@@ -13104,13 +13104,13 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F414" t="inlineStr"/>
       <c r="G414" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/guide.json</t>
+          <t>features/tools/guide.json</t>
         </is>
       </c>
     </row>
@@ -13321,13 +13321,13 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/ui-dev.json</t>
+          <t>features/tools/ui-dev.json</t>
         </is>
       </c>
     </row>
@@ -13352,13 +13352,13 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="F422" t="inlineStr"/>
       <c r="G422" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -13414,13 +13414,13 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/etl.json</t>
+          <t>features/tools/etl.json</t>
         </is>
       </c>
     </row>
@@ -13445,13 +13445,13 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F425" t="inlineStr"/>
       <c r="G425" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/extension-components.json</t>
+          <t>features/tools/extension-components.json</t>
         </is>
       </c>
     </row>
@@ -13476,13 +13476,13 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F426" t="inlineStr"/>
       <c r="G426" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/report.json</t>
+          <t>features/tools/report.json</t>
         </is>
       </c>
     </row>
@@ -13507,13 +13507,13 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F427" t="inlineStr"/>
       <c r="G427" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/doc.json</t>
+          <t>features/tools/doc.json</t>
         </is>
       </c>
     </row>
@@ -13538,13 +13538,13 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="F428" t="inlineStr"/>
       <c r="G428" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/tool.json</t>
+          <t>features/tools/tool.json</t>
         </is>
       </c>
     </row>
@@ -13693,13 +13693,13 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>about, migration</t>
+          <t>migration</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr">
         <is>
-          <t>about/about.json, about/migration/migration.json</t>
+          <t>about/migration/migration.json</t>
         </is>
       </c>
     </row>
@@ -14600,12 +14600,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>about, adaptor</t>
+          <t>adaptor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>about/about.json, features/adapters/adaptors.json</t>
+          <t>features/adapters/adaptors.json</t>
         </is>
       </c>
     </row>
@@ -15025,12 +15025,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -15050,12 +15050,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -15075,12 +15075,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -15100,12 +15100,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -15125,12 +15125,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -15150,12 +15150,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -15175,12 +15175,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -15200,12 +15200,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -15225,12 +15225,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -15250,12 +15250,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>about, batch-nablarch</t>
+          <t>batch-nablarch</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/nablarch-batch.json</t>
+          <t>features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -15275,12 +15275,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15300,12 +15300,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15325,12 +15325,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15350,12 +15350,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15375,12 +15375,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15400,12 +15400,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15425,12 +15425,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15450,12 +15450,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15475,12 +15475,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15500,12 +15500,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15525,12 +15525,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15550,12 +15550,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15575,12 +15575,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15600,12 +15600,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15625,12 +15625,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15650,12 +15650,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15675,12 +15675,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15700,12 +15700,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15725,12 +15725,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15750,12 +15750,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15775,12 +15775,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15800,12 +15800,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15825,12 +15825,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -15850,12 +15850,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -15875,12 +15875,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -15900,12 +15900,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -15925,12 +15925,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -15950,12 +15950,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -15975,12 +15975,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -16000,12 +16000,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/dbless-loop-handler.json</t>
         </is>
       </c>
     </row>
@@ -16025,12 +16025,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/batch.json</t>
         </is>
       </c>
     </row>
@@ -16050,12 +16050,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/loop-handler.json</t>
         </is>
       </c>
     </row>
@@ -16075,12 +16075,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>batch-nablarch, handler</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/nablarch-batch.json, features/handlers/process-resident-handler.json</t>
         </is>
       </c>
     </row>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/serviceavailabilitycheckhandler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16125,12 +16125,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/database-connection-management-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16150,12 +16150,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/file-record-writer-dispose-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -16175,12 +16175,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/global-error-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16200,12 +16200,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/common.json</t>
         </is>
       </c>
     </row>
@@ -16225,12 +16225,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/permission-check-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16250,12 +16250,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/request-handler-entry.json</t>
         </is>
       </c>
     </row>
@@ -16275,12 +16275,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/request-path-java-package-mapping.json</t>
         </is>
       </c>
     </row>
@@ -16300,12 +16300,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/thread-context-clear-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16325,12 +16325,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/thread-context-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16350,12 +16350,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/transaction-management-handler.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16375,12 +16375,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging-error-handler.json</t>
         </is>
       </c>
     </row>
@@ -16400,12 +16400,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging-request-parsing-handler.json</t>
         </is>
       </c>
     </row>
@@ -16425,12 +16425,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging-response-building-handler.json</t>
         </is>
       </c>
     </row>
@@ -16450,12 +16450,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/http-messaging.json</t>
         </is>
       </c>
     </row>
@@ -16475,12 +16475,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/handlers.json</t>
         </is>
       </c>
     </row>
@@ -16500,12 +16500,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/mom-messaging.json</t>
         </is>
       </c>
     </row>
@@ -16525,12 +16525,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/message-reply-handler.json</t>
         </is>
       </c>
     </row>
@@ -16550,12 +16550,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/message-resend-handler.json</t>
         </is>
       </c>
     </row>
@@ -16575,12 +16575,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/messaging-context-handler.json</t>
         </is>
       </c>
     </row>
@@ -16600,12 +16600,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/body-convert-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16625,12 +16625,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/cors-preflight-request-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16650,12 +16650,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/rest.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16675,12 +16675,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/jaxrs-access-log-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16700,12 +16700,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/jaxrs-bean-validation-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16725,12 +16725,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, rest</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/jaxrs-response-handler.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -16750,12 +16750,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/data-read-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -16775,12 +16775,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/duplicate-process-check-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -16800,12 +16800,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/standalone.json</t>
         </is>
       </c>
     </row>
@@ -16825,12 +16825,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/main.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -16850,12 +16850,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/multi-thread-execution-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -16875,12 +16875,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/process-stop-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -16900,12 +16900,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/request-thread-loop-handler.json</t>
         </is>
       </c>
     </row>
@@ -16925,12 +16925,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/retry-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -16950,12 +16950,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler, batch-nablarch</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/status-code-convert-handler.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -16975,12 +16975,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/injectform.json</t>
         </is>
       </c>
     </row>
@@ -17000,12 +17000,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/web-interceptor.json</t>
         </is>
       </c>
     </row>
@@ -17025,12 +17025,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/on-double-submission.json</t>
         </is>
       </c>
     </row>
@@ -17050,12 +17050,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/on-error.json</t>
         </is>
       </c>
     </row>
@@ -17075,12 +17075,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/on-errors.json</t>
         </is>
       </c>
     </row>
@@ -17100,12 +17100,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>handler</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/handlers/use-token.json</t>
         </is>
       </c>
     </row>
@@ -17150,12 +17150,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/permission-check.json</t>
+          <t>features/libraries/permission-check.json</t>
         </is>
       </c>
     </row>
@@ -17175,12 +17175,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, rest</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/role-check.json</t>
+          <t>features/libraries/role-check.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17200,12 +17200,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/bean-util.json</t>
+          <t>features/libraries/bean-util.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17225,12 +17225,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/code.json</t>
+          <t>features/libraries/code.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17250,12 +17250,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/data-converter.json</t>
+          <t>features/libraries/data-converter.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17275,12 +17275,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/data-bind.json</t>
+          <t>features/libraries/data-bind.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/data-format.json</t>
+          <t>features/libraries/data-format.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17325,12 +17325,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/format-definition.json</t>
+          <t>features/libraries/format-definition.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17350,12 +17350,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/multi-format-example.json</t>
+          <t>features/libraries/multi-format-example.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17375,12 +17375,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/functional-comparison.json</t>
+          <t>features/libraries/functional-comparison.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17400,12 +17400,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/database.json</t>
+          <t>features/libraries/database.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17425,12 +17425,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/functional-comparison.json</t>
+          <t>features/libraries/functional-comparison.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17450,12 +17450,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/generator.json</t>
+          <t>features/libraries/generator.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17475,12 +17475,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/universal-dao.json</t>
+          <t>features/libraries/universal-dao.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17500,12 +17500,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/database-management.json</t>
+          <t>features/libraries/database-management.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17525,12 +17525,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/date.json</t>
+          <t>features/libraries/date.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17550,12 +17550,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/db-double-submit.json</t>
+          <t>features/libraries/db-double-submit.json</t>
         </is>
       </c>
     </row>
@@ -17575,12 +17575,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/exclusive-control.json</t>
+          <t>features/libraries/exclusive-control.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17600,12 +17600,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/file-path-management.json</t>
+          <t>features/libraries/file-path-management.json, features/processing/nablarch-batch.json</t>
         </is>
       </c>
     </row>
@@ -17625,12 +17625,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/format.json</t>
+          <t>features/libraries/format.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17650,12 +17650,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/libraries.json</t>
+          <t>features/libraries/libraries.json</t>
         </is>
       </c>
     </row>
@@ -17675,12 +17675,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/log.json</t>
+          <t>features/libraries/log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17700,12 +17700,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/failure-log.json</t>
+          <t>features/libraries/failure-log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17725,12 +17725,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/http-access-log.json</t>
+          <t>features/libraries/http-access-log.json</t>
         </is>
       </c>
     </row>
@@ -17750,12 +17750,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, rest</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/jaxrs-access-log.json</t>
+          <t>features/libraries/jaxrs-access-log.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17775,12 +17775,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/messaging-log.json</t>
+          <t>features/libraries/messaging-log.json</t>
         </is>
       </c>
     </row>
@@ -17800,12 +17800,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/performance-log.json</t>
+          <t>features/libraries/performance-log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17825,12 +17825,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/sql-log.json</t>
+          <t>features/libraries/sql-log.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17850,12 +17850,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/mail.json</t>
+          <t>features/libraries/mail.json</t>
         </is>
       </c>
     </row>
@@ -17875,12 +17875,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/message.json</t>
+          <t>features/libraries/message.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17900,12 +17900,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/permission-check.json</t>
+          <t>features/libraries/permission-check.json</t>
         </is>
       </c>
     </row>
@@ -17925,12 +17925,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/repository.json</t>
+          <t>features/libraries/repository.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -17950,12 +17950,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/service-availability.json</t>
+          <t>features/libraries/service-availability.json</t>
         </is>
       </c>
     </row>
@@ -17975,12 +17975,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/session-store.json</t>
+          <t>features/libraries/session-store.json</t>
         </is>
       </c>
     </row>
@@ -18000,12 +18000,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/create-example.json</t>
+          <t>features/libraries/create-example.json</t>
         </is>
       </c>
     </row>
@@ -18025,12 +18025,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/update-example.json</t>
+          <t>features/libraries/update-example.json</t>
         </is>
       </c>
     </row>
@@ -18050,12 +18050,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/stateless-web-app.json</t>
+          <t>features/libraries/stateless-web-app.json</t>
         </is>
       </c>
     </row>
@@ -18075,12 +18075,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/static-data-cache.json</t>
+          <t>features/libraries/static-data-cache.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18100,12 +18100,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/system-messaging.json</t>
+          <t>features/libraries/system-messaging.json</t>
         </is>
       </c>
     </row>
@@ -18125,12 +18125,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/http-system-messaging.json</t>
+          <t>features/libraries/http-system-messaging.json</t>
         </is>
       </c>
     </row>
@@ -18150,12 +18150,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/mom-system-messaging.json</t>
+          <t>features/libraries/mom-system-messaging.json</t>
         </is>
       </c>
     </row>
@@ -18175,12 +18175,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/tag.json</t>
+          <t>features/libraries/tag.json</t>
         </is>
       </c>
     </row>
@@ -18200,12 +18200,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/tag-reference.json</t>
+          <t>features/libraries/tag-reference.json</t>
         </is>
       </c>
     </row>
@@ -18225,12 +18225,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/transaction.json</t>
+          <t>features/libraries/transaction.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18250,12 +18250,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/utility.json</t>
+          <t>features/libraries/utility.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18275,12 +18275,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/validation.json</t>
+          <t>features/libraries/validation.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18300,12 +18300,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/bean-validation.json</t>
+          <t>features/libraries/bean-validation.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18325,12 +18325,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/functional-comparison.json</t>
+          <t>features/libraries/functional-comparison.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18350,12 +18350,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>about, library</t>
+          <t>library, batch-nablarch, rest</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>about/about.json, features/libraries/nablarch-validation.json</t>
+          <t>features/libraries/nablarch-validation.json, features/processing/nablarch-batch.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18500,12 +18500,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18525,12 +18525,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18550,12 +18550,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18575,12 +18575,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18600,12 +18600,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18625,12 +18625,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18650,12 +18650,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18700,12 +18700,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18725,12 +18725,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18750,12 +18750,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18775,12 +18775,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18800,12 +18800,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18825,12 +18825,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>about, http-messaging, rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18850,12 +18850,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18875,12 +18875,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18900,12 +18900,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18925,12 +18925,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18950,12 +18950,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18975,12 +18975,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19000,12 +19000,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19025,12 +19025,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19050,12 +19050,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19075,12 +19075,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19150,12 +19150,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19175,12 +19175,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19250,12 +19250,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19275,12 +19275,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19300,12 +19300,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19325,12 +19325,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19375,12 +19375,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19400,12 +19400,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19425,12 +19425,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19450,12 +19450,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19475,12 +19475,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19500,12 +19500,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/development-tools.json</t>
+          <t>features/tools/development-tools.json</t>
         </is>
       </c>
     </row>
@@ -19525,12 +19525,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/java-static-analysis.json</t>
+          <t>features/tools/java-static-analysis.json</t>
         </is>
       </c>
     </row>
@@ -19600,12 +19600,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/01-entityunittest.json</t>
+          <t>features/tools/01-entityunittest.json</t>
         </is>
       </c>
     </row>
@@ -19650,12 +19650,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/01-classunittest.json</t>
+          <t>features/tools/01-classunittest.json</t>
         </is>
       </c>
     </row>
@@ -19850,12 +19850,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/02-requestunittest.json</t>
+          <t>features/tools/02-requestunittest.json</t>
         </is>
       </c>
     </row>
@@ -20075,12 +20075,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/03-dealunittest.json</t>
+          <t>features/tools/03-dealunittest.json</t>
         </is>
       </c>
     </row>
@@ -20175,12 +20175,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/05-unittestguide.json</t>
+          <t>features/tools/05-unittestguide.json</t>
         </is>
       </c>
     </row>
@@ -20475,12 +20475,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/06-testfwguide.json</t>
+          <t>features/tools/06-testfwguide.json</t>
         </is>
       </c>
     </row>
@@ -20550,12 +20550,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/01-httpdumptool.json</t>
+          <t>features/tools/01-httpdumptool.json</t>
         </is>
       </c>
     </row>
@@ -20625,12 +20625,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/02-masterdatasetup.json</t>
+          <t>features/tools/02-masterdatasetup.json</t>
         </is>
       </c>
     </row>
@@ -20650,12 +20650,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/03-htmlchecktool.json</t>
+          <t>features/tools/03-htmlchecktool.json</t>
         </is>
       </c>
     </row>
@@ -20675,12 +20675,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/08-testtools.json</t>
+          <t>features/tools/08-testtools.json</t>
         </is>
       </c>
     </row>
@@ -20700,12 +20700,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/testing-framework.json</t>
+          <t>features/tools/testing-framework.json</t>
         </is>
       </c>
     </row>
@@ -20775,12 +20775,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/jspstaticanalysis.json</t>
+          <t>features/tools/jspstaticanalysis.json</t>
         </is>
       </c>
     </row>
@@ -20850,12 +20850,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/toolbox.json</t>
+          <t>features/tools/toolbox.json</t>
         </is>
       </c>
     </row>
@@ -21025,12 +21025,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/doc.json</t>
+          <t>features/tools/doc.json</t>
         </is>
       </c>
     </row>
@@ -22400,12 +22400,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/reference-jsp-widgets.json</t>
+          <t>features/tools/reference-jsp-widgets.json</t>
         </is>
       </c>
     </row>
@@ -22775,12 +22775,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/reference-ui-plugin.json</t>
+          <t>features/tools/reference-ui-plugin.json</t>
         </is>
       </c>
     </row>
@@ -22800,12 +22800,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/reference-ui-standard.json</t>
+          <t>features/tools/reference-ui-standard.json</t>
         </is>
       </c>
     </row>
@@ -22925,12 +22925,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/guide.json</t>
+          <t>features/tools/guide.json</t>
         </is>
       </c>
     </row>
@@ -23100,12 +23100,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/ui-dev.json</t>
+          <t>features/tools/ui-dev.json</t>
         </is>
       </c>
     </row>
@@ -23125,12 +23125,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>about, setup</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>about/about.json, features/setup/setup.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -23175,12 +23175,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/etl.json</t>
+          <t>features/tools/etl.json</t>
         </is>
       </c>
     </row>
@@ -23200,12 +23200,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/extension-components.json</t>
+          <t>features/tools/extension-components.json</t>
         </is>
       </c>
     </row>
@@ -23225,12 +23225,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/report.json</t>
+          <t>features/tools/report.json</t>
         </is>
       </c>
     </row>
@@ -23250,12 +23250,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/doc.json</t>
+          <t>features/tools/doc.json</t>
         </is>
       </c>
     </row>
@@ -23275,12 +23275,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>about, tool</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>about/about.json, features/tools/tool.json</t>
+          <t>features/tools/tool.json</t>
         </is>
       </c>
     </row>
@@ -23400,12 +23400,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>about, migration</t>
+          <t>migration</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>about/about.json, about/migration/migration.json</t>
+          <t>about/migration/migration.json</t>
         </is>
       </c>
     </row>

--- a/work/20260213/create-mapping-info/mapping-v5.xlsx
+++ b/work/20260213/create-mapping-info/mapping-v5.xlsx
@@ -14,8 +14,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'All Files'!$A$1:$G$454</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'In Scope'!$A$1:$E$382</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Out of Scope'!$A$1:$D$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'In Scope'!$A$1:$E$390</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Out of Scope'!$A$1:$D$65</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -510,11 +510,11 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>84.1%</t>
+          <t>85.9%</t>
         </is>
       </c>
     </row>
@@ -525,11 +525,11 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>15.9%</t>
+          <t>14.1%</t>
         </is>
       </c>
     </row>
@@ -6429,18 +6429,22 @@
           <t>アプリケーションの責務配置</t>
         </is>
       </c>
-      <c r="D194" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr"/>
+      <c r="D194" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6456,18 +6460,22 @@
           <t>アーキテクチャ概要</t>
         </is>
       </c>
-      <c r="D195" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr"/>
+      <c r="D195" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6483,18 +6491,22 @@
           <t>機能詳細</t>
         </is>
       </c>
-      <c r="D196" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr"/>
+      <c r="D196" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6510,18 +6522,22 @@
           <t>データベースをキューとしたメッセージングのエラー処理</t>
         </is>
       </c>
-      <c r="D197" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr"/>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6537,18 +6553,22 @@
           <t>マルチプロセス化</t>
         </is>
       </c>
-      <c r="D198" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr"/>
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6564,18 +6584,22 @@
           <t>Getting Started</t>
         </is>
       </c>
-      <c r="D199" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr"/>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6591,18 +6615,22 @@
           <t>テーブルキューを監視し未処理データを取り込むアプリケーションの作成</t>
         </is>
       </c>
-      <c r="D200" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr"/>
+      <c r="D200" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -6618,18 +6646,22 @@
           <t>テーブルをキューとして使ったメッセージング</t>
         </is>
       </c>
-      <c r="D201" s="4" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr"/>
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>messaging-db</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>features/processing/messaging-db.json</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -14366,7 +14398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E382"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18365,22 +18397,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/nablarch/architecture.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/application_design.rst</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>アーキテクチャ</t>
+          <t>アプリケーションの責務配置</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -18390,22 +18422,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/nablarch/big_picture.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/architecture.rst</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>全体像</t>
+          <t>アーキテクチャ概要</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -18415,22 +18447,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/nablarch/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/feature_details.rst</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Nablarchアプリケーションフレームワークとは</t>
+          <t>機能詳細</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -18440,22 +18472,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/nablarch/platform.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/feature_details/error_processing.rst</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>稼動環境</t>
+          <t>データベースをキューとしたメッセージングのエラー処理</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -18465,22 +18497,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/nablarch/policy.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/feature_details/multiple_process.rst</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>基本方針</t>
+          <t>マルチプロセス化</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -18490,22 +18522,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/CustomizeAvailableCharacters.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/getting_started.rst</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>使用可能文字の追加手順</t>
+          <t>Getting Started</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -18515,22 +18547,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/CustomizeMessageIDAndMessage.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/getting_started/table_queue.rst</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>メッセージID及びメッセージ内容の変更手順</t>
+          <t>テーブルキューを監視し未処理データを取り込むアプリケーションの作成</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -18540,22 +18572,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/CustomizeSystemTableName.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/index.rst</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Nablarchフレームワークが使用するテーブル名の変更手順</t>
+          <t>テーブルをキューとして使ったメッセージング</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>messaging-db</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>features/processing/messaging-db.json</t>
         </is>
       </c>
     </row>
@@ -18565,22 +18597,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/config_key_naming.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/nablarch/architecture.rst</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>環境設定値の項目名ルール</t>
+          <t>アーキテクチャ</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -18590,22 +18622,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/nablarch/big_picture.rst</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>デフォルト設定値からの設定変更方法</t>
+          <t>全体像</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -18615,22 +18647,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/ManagingEnvironmentalConfiguration/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/nablarch/index.rst</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>処理方式、環境に依存する設定の管理方法</t>
+          <t>Nablarchアプリケーションフレームワークとは</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -18640,22 +18672,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/nablarch/platform.rst</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Nablarchアプリケーションフレームワーク設定ガイド</t>
+          <t>稼動環境</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>configuration</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>features/setup/configuration.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -18665,22 +18697,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/functional_comparison.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/nablarch/policy.rst</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>JAX-RSサポート/JSR339/HTTPメッセージングの機能比較</t>
+          <t>基本方針</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>about, rest</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>about/about.json, features/processing/rest-web-services.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -18690,22 +18722,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/application_design.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/CustomizeAvailableCharacters.rst</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>アプリケーションの責務配置</t>
+          <t>使用可能文字の追加手順</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http-messaging, rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18715,22 +18747,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/architecture.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/CustomizeMessageIDAndMessage.rst</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>アーキテクチャ概要</t>
+          <t>メッセージID及びメッセージ内容の変更手順</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http-messaging, rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18740,22 +18772,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/feature_details.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/CustomizeSystemTableName.rst</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>機能詳細</t>
+          <t>Nablarchフレームワークが使用するテーブル名の変更手順</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http-messaging, rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18765,22 +18797,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/getting_started/getting_started.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/config_key_naming.rst</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Getting Started</t>
+          <t>環境設定値の項目名ルール</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http-messaging, rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18790,22 +18822,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/getting_started/save/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/CustomizingConfigurations/index.rst</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>登録機能の作成</t>
+          <t>デフォルト設定値からの設定変更方法</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http-messaging, rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18815,22 +18847,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/ManagingEnvironmentalConfiguration/index.rst</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HTTPメッセージング編</t>
+          <t>処理方式、環境に依存する設定の管理方法</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http-messaging, rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18840,22 +18872,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/setting_guide/index.rst</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ウェブサービス編</t>
+          <t>Nablarchアプリケーションフレームワーク設定ガイド</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>configuration</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/setup/configuration.json</t>
         </is>
       </c>
     </row>
@@ -18865,22 +18897,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/application_design.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/functional_comparison.rst</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>RESTFulウェブサービスの責務配置</t>
+          <t>JAX-RSサポート/JSR339/HTTPメッセージングの機能比較</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>about, rest</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>about/about.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18890,22 +18922,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/architecture.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/application_design.rst</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>アーキテクチャ概要</t>
+          <t>アプリケーションの責務配置</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18915,22 +18947,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/feature_details.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/architecture.rst</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>機能詳細</t>
+          <t>アーキテクチャ概要</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18940,22 +18972,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/feature_details/resource_signature.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/feature_details.rst</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>リソース(アクション)クラスの実装に関して</t>
+          <t>機能詳細</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18965,22 +18997,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/create/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/getting_started/getting_started.rst</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>登録機能の作成</t>
+          <t>Getting Started</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -18990,22 +19022,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/getting_started/save/index.rst</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Getting Started</t>
+          <t>登録機能の作成</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19015,22 +19047,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/search/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/http_messaging/index.rst</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>検索機能の作成</t>
+          <t>HTTPメッセージング編</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>http-messaging, rest</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>features/processing/rest-web-services.json</t>
+          <t>features/processing/http-messaging.json, features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19040,12 +19072,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/update/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/index.rst</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>更新機能の作成</t>
+          <t>ウェブサービス編</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -19065,12 +19097,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/application_design.rst</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>RESTfulウェブサービス編</t>
+          <t>RESTFulウェブサービスの責務配置</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -19090,22 +19122,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/architecture.rst</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Nablarchアプリケーションフレームワーク</t>
+          <t>アーキテクチャ概要</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19115,22 +19147,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/01/0101_PBKDF2PasswordEncryptor.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/feature_details.rst</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>PBKDF2を用いたパスワード暗号化機能サンプル</t>
+          <t>機能詳細</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19140,22 +19172,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/01/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/feature_details/resource_signature.rst</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>データベースを用いたパスワード認証機能サンプル</t>
+          <t>リソース(アクション)クラスの実装に関して</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19165,22 +19197,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/03/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/create/index.rst</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>検索結果の一覧表示</t>
+          <t>登録機能の作成</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19190,22 +19222,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/04/0401_ExtendedDataFormatter.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/index.rst</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>データフォーマッタの拡張</t>
+          <t>Getting Started</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19215,22 +19247,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/04/0402_ExtendedFieldType.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/search/index.rst</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>データフォーマッタ機能におけるフィールドタイプの拡張</t>
+          <t>検索機能の作成</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19240,22 +19272,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/04/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/getting_started/update/index.rst</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>フォーマッタ機能の拡張</t>
+          <t>更新機能の作成</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19265,22 +19297,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/05/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web_service/rest/index.rst</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>データベースを用いたファイル管理機能サンプル</t>
+          <t>RESTfulウェブサービス編</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/processing/rest-web-services.json</t>
         </is>
       </c>
     </row>
@@ -19290,22 +19322,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/08/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/index.rst</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>HTMLメール送信機能サンプル</t>
+          <t>Nablarchアプリケーションフレームワーク</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -19315,12 +19347,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/09/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/01/0101_PBKDF2PasswordEncryptor.rst</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>bouncycastleを使用した電子署名つきメールの送信サンプルの使用方法</t>
+          <t>PBKDF2を用いたパスワード暗号化機能サンプル</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -19340,12 +19372,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/10/contents/OnlineAccessLogStatistics.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/01/index.rst</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>オンラインアクセスログ集計機能</t>
+          <t>データベースを用いたパスワード認証機能サンプル</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -19365,12 +19397,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/10/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/03/index.rst</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ログ集計サンプルの使用方法</t>
+          <t>検索結果の一覧表示</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -19390,12 +19422,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/11/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/04/0401_ExtendedDataFormatter.rst</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>メッセージング基盤テストシミュレータサンプル</t>
+          <t>データフォーマッタの拡張</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -19415,12 +19447,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/12/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/04/0402_ExtendedFieldType.rst</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>OIDCのIDトークンを用いた認証サンプル</t>
+          <t>データフォーマッタ機能におけるフィールドタイプの拡張</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -19440,12 +19472,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/13/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/04/index.rst</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Logbookを用いたリクエスト/レスポンスログ出力サンプル</t>
+          <t>フォーマッタ機能の拡張</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -19465,12 +19497,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/biz_samples/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/05/index.rst</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>目的別の実装サンプル集</t>
+          <t>データベースを用いたファイル管理機能サンプル</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -19490,22 +19522,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/08/index.rst</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Nablarch開発ツール</t>
+          <t>HTMLメール送信機能サンプル</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>features/tools/development-tools.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19515,22 +19547,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/java_static_analysis/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/09/index.rst</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>効率的なJava静的チェック</t>
+          <t>bouncycastleを使用した電子署名つきメールの送信サンプルの使用方法</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>features/tools/java-static-analysis.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19540,22 +19572,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/01_entityUnitTestWithBeanValidation.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/10/contents/OnlineAccessLogStatistics.rst</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Bean Validationに対応したForm/Entityのクラス単体テスト</t>
+          <t>オンラインアクセスログ集計機能</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>features/tools/01-entityunittestwithbeanvalidation.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19565,22 +19597,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/02_entityUnitTestWithNablarchValidation.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/10/index.rst</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Nablarch Validationに対応したForm/Entityのクラス単体テスト</t>
+          <t>ログ集計サンプルの使用方法</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>features/tools/02-entityunittestwithnablarchvalidation.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19590,22 +19622,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/11/index.rst</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Form/Entityの単体テスト</t>
+          <t>メッセージング基盤テストシミュレータサンプル</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>features/tools/01-entityunittest.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19615,22 +19647,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/02_componentUnitTest.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/12/index.rst</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Action/Componentのクラス単体テスト</t>
+          <t>OIDCのIDトークンを用いた認証サンプル</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>features/tools/02-componentunittest.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19640,22 +19672,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/13/index.rst</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>クラス単体テストの実施方法</t>
+          <t>Logbookを用いたリクエスト/レスポンスログ出力サンプル</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>features/tools/01-classunittest.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19665,22 +19697,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/batch.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/biz_samples/index.rst</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法(バッチ)</t>
+          <t>目的別の実装サンプル集</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>features/tools/batch.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -19690,12 +19722,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/delayed_receive.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/index.rst</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法（応答不要メッセージ受信処理）</t>
+          <t>Nablarch開発ツール</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -19705,7 +19737,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>features/tools/delayed-receive.json</t>
+          <t>features/tools/development-tools.json</t>
         </is>
       </c>
     </row>
@@ -19715,12 +19747,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/delayed_send.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/java_static_analysis/index.rst</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法（応答不要メッセージ送信処理）</t>
+          <t>効率的なJava静的チェック</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -19730,7 +19762,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>features/tools/delayed-send.json</t>
+          <t>features/tools/java-static-analysis.json</t>
         </is>
       </c>
     </row>
@@ -19740,12 +19772,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/double_transmission.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/01_entityUnitTestWithBeanValidation.rst</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>二重サブミット防止機能のテスト実施方法</t>
+          <t>Bean Validationに対応したForm/Entityのクラス単体テスト</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -19755,7 +19787,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>features/tools/double-transmission.json</t>
+          <t>features/tools/01-entityunittestwithbeanvalidation.json</t>
         </is>
       </c>
     </row>
@@ -19765,12 +19797,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/fileupload.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/02_entityUnitTestWithNablarchValidation.rst</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法(ファイルアップロード)</t>
+          <t>Nablarch Validationに対応したForm/Entityのクラス単体テスト</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -19780,7 +19812,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>features/tools/fileupload.json</t>
+          <t>features/tools/02-entityunittestwithnablarchvalidation.json</t>
         </is>
       </c>
     </row>
@@ -19790,12 +19822,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/http_real.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/01_entityUnitTest/index.rst</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法（HTTP同期応答メッセージ受信処理）</t>
+          <t>Form/Entityの単体テスト</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -19805,7 +19837,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>features/tools/http-real.json</t>
+          <t>features/tools/01-entityunittest.json</t>
         </is>
       </c>
     </row>
@@ -19815,12 +19847,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/http_send_sync.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/02_componentUnitTest.rst</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法(HTTP同期応答メッセージ送信処理)</t>
+          <t>Action/Componentのクラス単体テスト</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -19830,7 +19862,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>features/tools/http-send-sync.json</t>
+          <t>features/tools/02-componentunittest.json</t>
         </is>
       </c>
     </row>
@@ -19840,12 +19872,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/index.rst</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法</t>
+          <t>クラス単体テストの実施方法</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -19855,7 +19887,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>features/tools/02-requestunittest.json</t>
+          <t>features/tools/01-classunittest.json</t>
         </is>
       </c>
     </row>
@@ -19865,12 +19897,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/mail.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/batch.rst</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法(メール送信)</t>
+          <t>リクエスト単体テストの実施方法(バッチ)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -19880,7 +19912,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>features/tools/mail.json</t>
+          <t>features/tools/batch.json</t>
         </is>
       </c>
     </row>
@@ -19890,12 +19922,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/real.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/delayed_receive.rst</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法(同期応答メッセージ受信処理)</t>
+          <t>リクエスト単体テストの実施方法（応答不要メッセージ受信処理）</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -19905,7 +19937,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>features/tools/real.json</t>
+          <t>features/tools/delayed-receive.json</t>
         </is>
       </c>
     </row>
@@ -19915,12 +19947,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/rest.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/delayed_send.rst</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法</t>
+          <t>リクエスト単体テストの実施方法（応答不要メッセージ送信処理）</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -19930,7 +19962,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>features/tools/rest.json</t>
+          <t>features/tools/delayed-send.json</t>
         </is>
       </c>
     </row>
@@ -19940,12 +19972,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/send_sync.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/double_transmission.rst</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>リクエスト単体テストの実施方法(同期応答メッセージ送信処理)</t>
+          <t>二重サブミット防止機能のテスト実施方法</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -19955,7 +19987,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>features/tools/send-sync.json</t>
+          <t>features/tools/double-transmission.json</t>
         </is>
       </c>
     </row>
@@ -19965,12 +19997,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/batch.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/fileupload.rst</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>取引単体テストの実施方法（バッチ）</t>
+          <t>リクエスト単体テストの実施方法(ファイルアップロード)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -19980,7 +20012,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>features/tools/batch.json</t>
+          <t>features/tools/fileupload.json</t>
         </is>
       </c>
     </row>
@@ -19990,12 +20022,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/delayed_receive.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/http_real.rst</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>取引単体テストの実施方法（応答不要メッセージ受信処理）</t>
+          <t>リクエスト単体テストの実施方法（HTTP同期応答メッセージ受信処理）</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -20005,7 +20037,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>features/tools/delayed-receive.json</t>
+          <t>features/tools/http-real.json</t>
         </is>
       </c>
     </row>
@@ -20015,12 +20047,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/delayed_send.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/http_send_sync.rst</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>取引単体テストの実施方法（応答不要メッセージ送信処理）</t>
+          <t>リクエスト単体テストの実施方法(HTTP同期応答メッセージ送信処理)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -20030,7 +20062,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>features/tools/delayed-send.json</t>
+          <t>features/tools/http-send-sync.json</t>
         </is>
       </c>
     </row>
@@ -20040,12 +20072,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/http_send_sync.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/index.rst</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>HTTP同期応答メッセージ送信処理を伴う取引単体テストの実施方法</t>
+          <t>リクエスト単体テストの実施方法</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -20055,7 +20087,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>features/tools/http-send-sync.json</t>
+          <t>features/tools/02-requestunittest.json</t>
         </is>
       </c>
     </row>
@@ -20065,12 +20097,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/mail.rst</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>取引単体テストの実施方法</t>
+          <t>リクエスト単体テストの実施方法(メール送信)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -20080,7 +20112,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>features/tools/03-dealunittest.json</t>
+          <t>features/tools/mail.json</t>
         </is>
       </c>
     </row>
@@ -20090,12 +20122,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/real.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/real.rst</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>取引単体テストの実施方法（同期応答メッセージ受信処理)</t>
+          <t>リクエスト単体テストの実施方法(同期応答メッセージ受信処理)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -20115,12 +20147,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/rest.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/rest.rst</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>取引単体テストの実施方法</t>
+          <t>リクエスト単体テストの実施方法</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -20140,12 +20172,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/send_sync.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/send_sync.rst</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>同期応答メッセージ送信処理を伴う取引単体テストの実施方法</t>
+          <t>リクエスト単体テストの実施方法(同期応答メッセージ送信処理)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -20165,12 +20197,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/batch.rst</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>単体テスト実施方法</t>
+          <t>取引単体テストの実施方法（バッチ）</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -20180,7 +20212,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>features/tools/05-unittestguide.json</t>
+          <t>features/tools/batch.json</t>
         </is>
       </c>
     </row>
@@ -20190,12 +20222,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/01_Abstract.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/delayed_receive.rst</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>自動テストフレームワーク</t>
+          <t>取引単体テストの実施方法（応答不要メッセージ受信処理）</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -20205,7 +20237,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>features/tools/01-abstract.json</t>
+          <t>features/tools/delayed-receive.json</t>
         </is>
       </c>
     </row>
@@ -20215,12 +20247,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/02_DbAccessTest.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/delayed_send.rst</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>データベースを使用するクラスのテスト</t>
+          <t>取引単体テストの実施方法（応答不要メッセージ送信処理）</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -20230,7 +20262,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>features/tools/02-dbaccesstest.json</t>
+          <t>features/tools/delayed-send.json</t>
         </is>
       </c>
     </row>
@@ -20240,12 +20272,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/02_RequestUnitTest.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/http_send_sync.rst</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>リクエスト単体テスト（ウェブアプリケーション）</t>
+          <t>HTTP同期応答メッセージ送信処理を伴う取引単体テストの実施方法</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -20255,7 +20287,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>features/tools/02-requestunittest.json</t>
+          <t>features/tools/http-send-sync.json</t>
         </is>
       </c>
     </row>
@@ -20265,12 +20297,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/03_Tips.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/index.rst</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>目的別API使用方法</t>
+          <t>取引単体テストの実施方法</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -20280,7 +20312,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>features/tools/03-tips.json</t>
+          <t>features/tools/03-dealunittest.json</t>
         </is>
       </c>
     </row>
@@ -20290,12 +20322,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/04_MasterDataRestore.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/real.rst</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>マスタデータ復旧機能</t>
+          <t>取引単体テストの実施方法（同期応答メッセージ受信処理)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -20305,7 +20337,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>features/tools/04-masterdatarestore.json</t>
+          <t>features/tools/real.json</t>
         </is>
       </c>
     </row>
@@ -20315,12 +20347,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/JUnit5_Extension.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/rest.rst</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>JUnit 5用拡張機能</t>
+          <t>取引単体テストの実施方法</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -20330,7 +20362,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>features/tools/junit5-extension.json</t>
+          <t>features/tools/rest.json</t>
         </is>
       </c>
     </row>
@@ -20340,12 +20372,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_batch.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/send_sync.rst</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>リクエスト単体テスト（バッチ処理）</t>
+          <t>同期応答メッセージ送信処理を伴う取引単体テストの実施方法</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -20355,7 +20387,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>features/tools/requestunittest-batch.json</t>
+          <t>features/tools/send-sync.json</t>
         </is>
       </c>
     </row>
@@ -20365,12 +20397,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_http_send_sync.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/index.rst</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>リクエスト単体テスト（HTTP同期応答メッセージ送信処理）</t>
+          <t>単体テスト実施方法</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -20380,7 +20412,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>features/tools/requestunittest-http-send-sync.json</t>
+          <t>features/tools/05-unittestguide.json</t>
         </is>
       </c>
     </row>
@@ -20390,12 +20422,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_real.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/01_Abstract.rst</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>リクエスト単体テスト（メッセージ受信処理）</t>
+          <t>自動テストフレームワーク</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -20405,7 +20437,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>features/tools/requestunittest-real.json</t>
+          <t>features/tools/01-abstract.json</t>
         </is>
       </c>
     </row>
@@ -20415,12 +20447,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_rest.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/02_DbAccessTest.rst</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>リクエスト単体テスト（RESTfulウェブサービス）</t>
+          <t>データベースを使用するクラスのテスト</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -20430,7 +20462,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>features/tools/requestunittest-rest.json</t>
+          <t>features/tools/02-dbaccesstest.json</t>
         </is>
       </c>
     </row>
@@ -20440,12 +20472,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_send_sync.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/02_RequestUnitTest.rst</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>リクエスト単体テスト（同期応答メッセージ送信処理）</t>
+          <t>リクエスト単体テスト（ウェブアプリケーション）</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -20455,7 +20487,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>features/tools/requestunittest-send-sync.json</t>
+          <t>features/tools/02-requestunittest.json</t>
         </is>
       </c>
     </row>
@@ -20465,12 +20497,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/03_Tips.rst</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>自動テストフレームワークの使用方法</t>
+          <t>目的別API使用方法</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -20480,7 +20512,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>features/tools/06-testfwguide.json</t>
+          <t>features/tools/03-tips.json</t>
         </is>
       </c>
     </row>
@@ -20490,12 +20522,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/01_HttpDumpTool.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/04_MasterDataRestore.rst</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>リクエスト単体データ作成ツール</t>
+          <t>マスタデータ復旧機能</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -20505,7 +20537,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>features/tools/01-httpdumptool.json</t>
+          <t>features/tools/04-masterdatarestore.json</t>
         </is>
       </c>
     </row>
@@ -20515,12 +20547,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/02_SetUpHttpDumpTool.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/JUnit5_Extension.rst</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>リクエスト単体データ作成ツール インストールガイド</t>
+          <t>JUnit 5用拡張機能</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -20530,7 +20562,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>features/tools/02-setuphttpdumptool.json</t>
+          <t>features/tools/junit5-extension.json</t>
         </is>
       </c>
     </row>
@@ -20540,12 +20572,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_batch.rst</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>リクエスト単体データ作成ツール</t>
+          <t>リクエスト単体テスト（バッチ処理）</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -20555,7 +20587,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>features/tools/01-httpdumptool.json</t>
+          <t>features/tools/requestunittest-batch.json</t>
         </is>
       </c>
     </row>
@@ -20565,12 +20597,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/01_MasterDataSetupTool.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_http_send_sync.rst</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>マスタデータ投入ツール</t>
+          <t>リクエスト単体テスト（HTTP同期応答メッセージ送信処理）</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -20580,7 +20612,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>features/tools/01-masterdatasetuptool.json</t>
+          <t>features/tools/requestunittest-http-send-sync.json</t>
         </is>
       </c>
     </row>
@@ -20590,12 +20622,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/02_ConfigMasterDataSetupTool.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_real.rst</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>マスタデータ投入ツール インストールガイド</t>
+          <t>リクエスト単体テスト（メッセージ受信処理）</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -20605,7 +20637,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>features/tools/02-configmasterdatasetuptool.json</t>
+          <t>features/tools/requestunittest-real.json</t>
         </is>
       </c>
     </row>
@@ -20615,12 +20647,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_rest.rst</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>マスタデータ投入ツール</t>
+          <t>リクエスト単体テスト（RESTfulウェブサービス）</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -20630,7 +20662,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>features/tools/02-masterdatasetup.json</t>
+          <t>features/tools/requestunittest-rest.json</t>
         </is>
       </c>
     </row>
@@ -20640,12 +20672,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/03_HtmlCheckTool/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/RequestUnitTest_send_sync.rst</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>HTMLチェックツール</t>
+          <t>リクエスト単体テスト（同期応答メッセージ送信処理）</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -20655,7 +20687,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>features/tools/03-htmlchecktool.json</t>
+          <t>features/tools/requestunittest-send-sync.json</t>
         </is>
       </c>
     </row>
@@ -20665,12 +20697,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/06_TestFWGuide/index.rst</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>プログラミング工程で使用するツール</t>
+          <t>自動テストフレームワークの使用方法</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -20680,7 +20712,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>features/tools/08-testtools.json</t>
+          <t>features/tools/06-testfwguide.json</t>
         </is>
       </c>
     </row>
@@ -20690,12 +20722,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/01_HttpDumpTool.rst</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>テスティングフレームワーク</t>
+          <t>リクエスト単体データ作成ツール</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -20705,7 +20737,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>features/tools/testing-framework.json</t>
+          <t>features/tools/01-httpdumptool.json</t>
         </is>
       </c>
     </row>
@@ -20715,12 +20747,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/toolbox/JspStaticAnalysis/01_JspStaticAnalysis.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/02_SetUpHttpDumpTool.rst</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>JSP静的解析ツール</t>
+          <t>リクエスト単体データ作成ツール インストールガイド</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -20730,7 +20762,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>features/tools/01-jspstaticanalysis.json</t>
+          <t>features/tools/02-setuphttpdumptool.json</t>
         </is>
       </c>
     </row>
@@ -20740,12 +20772,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/toolbox/JspStaticAnalysis/02_JspStaticAnalysisInstall.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/01_HttpDumpTool/index.rst</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>JSP静的解析ツール 設定変更ガイド</t>
+          <t>リクエスト単体データ作成ツール</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -20755,7 +20787,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>features/tools/02-jspstaticanalysisinstall.json</t>
+          <t>features/tools/01-httpdumptool.json</t>
         </is>
       </c>
     </row>
@@ -20765,12 +20797,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/toolbox/JspStaticAnalysis/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/01_MasterDataSetupTool.rst</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>JSP静的解析ツール</t>
+          <t>マスタデータ投入ツール</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -20780,7 +20812,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>features/tools/jspstaticanalysis.json</t>
+          <t>features/tools/01-masterdatasetuptool.json</t>
         </is>
       </c>
     </row>
@@ -20790,12 +20822,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/toolbox/JspVerifier/JspVerifier.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/02_ConfigMasterDataSetupTool.rst</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>業務画面JSP検証ツール</t>
+          <t>マスタデータ投入ツール インストールガイド</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -20805,7 +20837,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>features/tools/jspverifier.json</t>
+          <t>features/tools/02-configmasterdatasetuptool.json</t>
         </is>
       </c>
     </row>
@@ -20815,12 +20847,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/toolbox/SqlExecutor/SqlExecutor.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/02_MasterDataSetup/index.rst</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Nablarch SQL Executor</t>
+          <t>マスタデータ投入ツール</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -20830,7 +20862,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>features/tools/sqlexecutor.json</t>
+          <t>features/tools/02-masterdatasetup.json</t>
         </is>
       </c>
     </row>
@@ -20840,12 +20872,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/toolbox/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/03_HtmlCheckTool/index.rst</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>アプリケーション開発時に使える便利なツール</t>
+          <t>HTMLチェックツール</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -20855,7 +20887,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>features/tools/toolbox.json</t>
+          <t>features/tools/03-htmlchecktool.json</t>
         </is>
       </c>
     </row>
@@ -20865,12 +20897,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/about_this_book.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/guide/development_guide/08_TestTools/index.rst</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>本書の内容</t>
+          <t>プログラミング工程で使用するツール</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -20880,7 +20912,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>features/tools/about-this-book.json</t>
+          <t>features/tools/08-testtools.json</t>
         </is>
       </c>
     </row>
@@ -20890,12 +20922,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/book_layout.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/testing_framework/index.rst</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>本書の構成</t>
+          <t>テスティングフレームワーク</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -20905,7 +20937,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>features/tools/book-layout.json</t>
+          <t>features/tools/testing-framework.json</t>
         </is>
       </c>
     </row>
@@ -20915,12 +20947,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/development_environment/initial_setup.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/toolbox/JspStaticAnalysis/01_JspStaticAnalysis.rst</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>UI開発基盤の導入</t>
+          <t>JSP静的解析ツール</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -20930,7 +20962,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>features/tools/initial-setup.json</t>
+          <t>features/tools/01-jspstaticanalysis.json</t>
         </is>
       </c>
     </row>
@@ -20940,12 +20972,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/development_environment/modifying_code_and_testing.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/toolbox/JspStaticAnalysis/02_JspStaticAnalysisInstall.rst</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>UI標準のカスタマイズとUI開発基盤への反映</t>
+          <t>JSP静的解析ツール 設定変更ガイド</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -20955,7 +20987,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>features/tools/modifying-code-and-testing.json</t>
+          <t>features/tools/02-jspstaticanalysisinstall.json</t>
         </is>
       </c>
     </row>
@@ -20965,12 +20997,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/development_environment/redistribution.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/toolbox/JspStaticAnalysis/index.rst</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>UI開発基盤の展開</t>
+          <t>JSP静的解析ツール</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -20980,7 +21012,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>features/tools/redistribution.json</t>
+          <t>features/tools/jspstaticanalysis.json</t>
         </is>
       </c>
     </row>
@@ -20990,12 +21022,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/development_environment/update_bundle_plugin.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/toolbox/JspVerifier/JspVerifier.rst</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Nablarch 標準プラグインの更新</t>
+          <t>業務画面JSP検証ツール</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -21005,7 +21037,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>features/tools/update-bundle-plugin.json</t>
+          <t>features/tools/jspverifier.json</t>
         </is>
       </c>
     </row>
@@ -21015,12 +21047,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/toolbox/SqlExecutor/SqlExecutor.rst</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Nablarch UI開発基盤 解説書</t>
+          <t>Nablarch SQL Executor</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -21030,7 +21062,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>features/tools/doc.json</t>
+          <t>features/tools/sqlexecutor.json</t>
         </is>
       </c>
     </row>
@@ -21040,12 +21072,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/architecture_overview.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/toolbox/index.rst</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>全体構造</t>
+          <t>アプリケーション開発時に使える便利なツール</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -21055,7 +21087,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>features/tools/architecture-overview.json</t>
+          <t>features/tools/toolbox.json</t>
         </is>
       </c>
     </row>
@@ -21065,12 +21097,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/configuration_files.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/about_this_book.rst</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>UI開発基盤設定ファイル</t>
+          <t>本書の内容</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -21080,7 +21112,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>features/tools/configuration-files.json</t>
+          <t>features/tools/about-this-book.json</t>
         </is>
       </c>
     </row>
@@ -21090,12 +21122,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/css_framework.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/book_layout.rst</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>CSSフレームワーク</t>
+          <t>本書の構成</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -21105,7 +21137,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>features/tools/css-framework.json</t>
+          <t>features/tools/book-layout.json</t>
         </is>
       </c>
     </row>
@@ -21115,12 +21147,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/inbrowser_jsp_rendering.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/development_environment/initial_setup.rst</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>業務画面JSPローカル表示機能</t>
+          <t>UI開発基盤の導入</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -21130,7 +21162,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>features/tools/inbrowser-jsp-rendering.json</t>
+          <t>features/tools/initial-setup.json</t>
         </is>
       </c>
     </row>
@@ -21140,12 +21172,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/js_framework.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/development_environment/modifying_code_and_testing.rst</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>JavaScript UI部品</t>
+          <t>UI標準のカスタマイズとUI開発基盤への反映</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -21155,7 +21187,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>features/tools/js-framework.json</t>
+          <t>features/tools/modifying-code-and-testing.json</t>
         </is>
       </c>
     </row>
@@ -21165,12 +21197,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/jsp_page_templates.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/development_environment/redistribution.rst</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>業務画面テンプレート</t>
+          <t>UI開発基盤の展開</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -21180,7 +21212,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>features/tools/jsp-page-templates.json</t>
+          <t>features/tools/redistribution.json</t>
         </is>
       </c>
     </row>
@@ -21190,12 +21222,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/jsp_widgets.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/development_environment/update_bundle_plugin.rst</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>UI部品ウィジェット</t>
+          <t>Nablarch 標準プラグインの更新</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -21205,7 +21237,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>features/tools/jsp-widgets.json</t>
+          <t>features/tools/update-bundle-plugin.json</t>
         </is>
       </c>
     </row>
@@ -21215,12 +21247,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/multicol_css_framework.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/index.rst</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>マルチレイアウト用CSSフレームワーク</t>
+          <t>Nablarch UI開発基盤 解説書</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -21230,7 +21262,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>features/tools/multicol-css-framework.json</t>
+          <t>features/tools/doc.json</t>
         </is>
       </c>
     </row>
@@ -21240,12 +21272,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/showing_specsheet_view.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/architecture_overview.rst</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>設計書ビュー表示機能</t>
+          <t>全体構造</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -21255,7 +21287,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>features/tools/showing-specsheet-view.json</t>
+          <t>features/tools/architecture-overview.json</t>
         </is>
       </c>
     </row>
@@ -21265,12 +21297,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/introduction/grand_design.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/configuration_files.rst</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>設計指針</t>
+          <t>UI開発基盤設定ファイル</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -21280,7 +21312,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>features/tools/grand-design.json</t>
+          <t>features/tools/configuration-files.json</t>
         </is>
       </c>
     </row>
@@ -21290,12 +21322,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/introduction/intention.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/css_framework.rst</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Nablarch UI開発基盤の特徴</t>
+          <t>CSSフレームワーク</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -21305,7 +21337,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>features/tools/intention.json</t>
+          <t>features/tools/css-framework.json</t>
         </is>
       </c>
     </row>
@@ -21315,12 +21347,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/introduction/ui_development_workflow.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/inbrowser_jsp_rendering.rst</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>UI開発ワークフロー</t>
+          <t>業務画面JSPローカル表示機能</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -21330,7 +21362,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>features/tools/ui-development-workflow.json</t>
+          <t>features/tools/inbrowser-jsp-rendering.json</t>
         </is>
       </c>
     </row>
@@ -21340,12 +21372,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/known_issues.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/js_framework.rst</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>既知の問題</t>
+          <t>JavaScript UI部品</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -21355,7 +21387,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>features/tools/known-issues.json</t>
+          <t>features/tools/js-framework.json</t>
         </is>
       </c>
     </row>
@@ -21365,12 +21397,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/plugin_build.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/jsp_page_templates.rst</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>プラグインビルドコマンド仕様</t>
+          <t>業務画面テンプレート</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -21380,7 +21412,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>features/tools/plugin-build.json</t>
+          <t>features/tools/jsp-page-templates.json</t>
         </is>
       </c>
     </row>
@@ -21390,12 +21422,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_js_framework.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/jsp_widgets.rst</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>JavaScript UI部品一覧</t>
+          <t>UI部品ウィジェット</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -21405,7 +21437,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>features/tools/reference-js-framework.json</t>
+          <t>features/tools/jsp-widgets.json</t>
         </is>
       </c>
     </row>
@@ -21415,12 +21447,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/box_content.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/multicol_css_framework.rst</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>コンテンツ用表示領域ウィジェット</t>
+          <t>マルチレイアウト用CSSフレームワーク</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -21430,7 +21462,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>features/tools/box-content.json</t>
+          <t>features/tools/multicol-css-framework.json</t>
         </is>
       </c>
     </row>
@@ -21440,12 +21472,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/box_img.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/internals/showing_specsheet_view.rst</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>画像表示ウィジェット</t>
+          <t>設計書ビュー表示機能</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -21455,7 +21487,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>features/tools/box-img.json</t>
+          <t>features/tools/showing-specsheet-view.json</t>
         </is>
       </c>
     </row>
@@ -21465,12 +21497,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/box_title.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/introduction/grand_design.rst</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>タイトル用表示領域ウィジェット</t>
+          <t>設計指針</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -21480,7 +21512,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>features/tools/box-title.json</t>
+          <t>features/tools/grand-design.json</t>
         </is>
       </c>
     </row>
@@ -21490,12 +21522,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/button_block.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/introduction/intention.rst</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>ボタン配置ブロック</t>
+          <t>Nablarch UI開発基盤の特徴</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -21505,7 +21537,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>features/tools/button-block.json</t>
+          <t>features/tools/intention.json</t>
         </is>
       </c>
     </row>
@@ -21515,12 +21547,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/button_submit.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/introduction/ui_development_workflow.rst</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>ボタンウィジェット</t>
+          <t>UI開発ワークフロー</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -21530,7 +21562,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>features/tools/button-submit.json</t>
+          <t>features/tools/ui-development-workflow.json</t>
         </is>
       </c>
     </row>
@@ -21540,12 +21572,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/column_checkbox.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/known_issues.rst</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>テーブル複数行選択用チェックボックスカラムウィジェット</t>
+          <t>既知の問題</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -21555,7 +21587,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>features/tools/column-checkbox.json</t>
+          <t>features/tools/known-issues.json</t>
         </is>
       </c>
     </row>
@@ -21565,12 +21597,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/column_code.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/plugin_build.rst</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>コード値ラベル表示用カラムウィジェット</t>
+          <t>プラグインビルドコマンド仕様</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -21580,7 +21612,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>features/tools/column-code.json</t>
+          <t>features/tools/plugin-build.json</t>
         </is>
       </c>
     </row>
@@ -21590,12 +21622,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/column_label.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_js_framework.rst</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>ラベル表示用カラムウィジェット</t>
+          <t>JavaScript UI部品一覧</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -21605,7 +21637,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>features/tools/column-label.json</t>
+          <t>features/tools/reference-js-framework.json</t>
         </is>
       </c>
     </row>
@@ -21615,12 +21647,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/column_link.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/box_content.rst</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>リンク表示用カラムウィジェット</t>
+          <t>コンテンツ用表示領域ウィジェット</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -21630,7 +21662,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>features/tools/column-link.json</t>
+          <t>features/tools/box-content.json</t>
         </is>
       </c>
     </row>
@@ -21640,12 +21672,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/column_radio.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/box_img.rst</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>テーブル行選択用ラジオボタンカラムウィジェット</t>
+          <t>画像表示ウィジェット</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -21655,7 +21687,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>features/tools/column-radio.json</t>
+          <t>features/tools/box-img.json</t>
         </is>
       </c>
     </row>
@@ -21665,12 +21697,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_alert.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/box_title.rst</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>アラートダイアログ表示イベントアクション</t>
+          <t>タイトル用表示領域ウィジェット</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -21680,7 +21712,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>features/tools/event-alert.json</t>
+          <t>features/tools/box-title.json</t>
         </is>
       </c>
     </row>
@@ -21690,12 +21722,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_confirm.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/button_block.rst</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>確認ダイアログ表示イベントアクション</t>
+          <t>ボタン配置ブロック</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -21705,7 +21737,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>features/tools/event-confirm.json</t>
+          <t>features/tools/button-block.json</t>
         </is>
       </c>
     </row>
@@ -21715,12 +21747,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_listen.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/button_submit.rst</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>ページ内イベント定義</t>
+          <t>ボタンウィジェット</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -21730,7 +21762,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>features/tools/event-listen.json</t>
+          <t>features/tools/button-submit.json</t>
         </is>
       </c>
     </row>
@@ -21740,12 +21772,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_listen_subwindow.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/column_checkbox.rst</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>サブウィンドウ内イベント定義</t>
+          <t>テーブル複数行選択用チェックボックスカラムウィジェット</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -21755,7 +21787,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>features/tools/event-listen-subwindow.json</t>
+          <t>features/tools/column-checkbox.json</t>
         </is>
       </c>
     </row>
@@ -21765,12 +21797,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_send_request.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/column_code.rst</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>XHRリクエスト送信イベントアクション</t>
+          <t>コード値ラベル表示用カラムウィジェット</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -21780,7 +21812,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>features/tools/event-send-request.json</t>
+          <t>features/tools/column-code.json</t>
         </is>
       </c>
     </row>
@@ -21790,12 +21822,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_toggle_disabled.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/column_label.rst</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>disabled 項目切替えイベントアクション</t>
+          <t>ラベル表示用カラムウィジェット</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -21805,7 +21837,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>features/tools/event-toggle-disabled.json</t>
+          <t>features/tools/column-label.json</t>
         </is>
       </c>
     </row>
@@ -21815,12 +21847,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_toggle_property.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/column_link.rst</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>属性値の動的切替</t>
+          <t>リンク表示用カラムウィジェット</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -21830,7 +21862,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>features/tools/event-toggle-property.json</t>
+          <t>features/tools/column-link.json</t>
         </is>
       </c>
     </row>
@@ -21840,12 +21872,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_toggle_readonly.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/column_radio.rst</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>readonly 項目切替えイベントアクション</t>
+          <t>テーブル行選択用ラジオボタンカラムウィジェット</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -21855,7 +21887,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>features/tools/event-toggle-readonly.json</t>
+          <t>features/tools/column-radio.json</t>
         </is>
       </c>
     </row>
@@ -21865,12 +21897,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_window_close.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_alert.rst</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>ウィンドウクローズイベントアクション</t>
+          <t>アラートダイアログ表示イベントアクション</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -21880,7 +21912,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>features/tools/event-window-close.json</t>
+          <t>features/tools/event-alert.json</t>
         </is>
       </c>
     </row>
@@ -21890,12 +21922,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_write_to.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_confirm.rst</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>項目内容変更イベントアクション</t>
+          <t>確認ダイアログ表示イベントアクション</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -21905,7 +21937,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>features/tools/event-write-to.json</t>
+          <t>features/tools/event-confirm.json</t>
         </is>
       </c>
     </row>
@@ -21915,12 +21947,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_base.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_listen.rst</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>入力項目ウィジェット共通テンプレート</t>
+          <t>ページ内イベント定義</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -21930,7 +21962,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>features/tools/field-base.json</t>
+          <t>features/tools/event-listen.json</t>
         </is>
       </c>
     </row>
@@ -21940,12 +21972,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_block.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_listen_subwindow.rst</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>入力フォームブロック</t>
+          <t>サブウィンドウ内イベント定義</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -21955,7 +21987,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>features/tools/field-block.json</t>
+          <t>features/tools/event-listen-subwindow.json</t>
         </is>
       </c>
     </row>
@@ -21965,12 +21997,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_calendar.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_send_request.rst</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>カレンダー日付入力ウィジェット</t>
+          <t>XHRリクエスト送信イベントアクション</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -21980,7 +22012,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>features/tools/field-calendar.json</t>
+          <t>features/tools/event-send-request.json</t>
         </is>
       </c>
     </row>
@@ -21990,12 +22022,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_checkbox.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_toggle_disabled.rst</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>チェックボックス入力項目ウィジェット</t>
+          <t>disabled 項目切替えイベントアクション</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -22005,7 +22037,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>features/tools/field-checkbox.json</t>
+          <t>features/tools/event-toggle-disabled.json</t>
         </is>
       </c>
     </row>
@@ -22015,12 +22047,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_code_checkbox.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_toggle_property.rst</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>コード値チェックボックス入力項目ウィジェット</t>
+          <t>属性値の動的切替</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -22030,7 +22062,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>features/tools/field-code-checkbox.json</t>
+          <t>features/tools/event-toggle-property.json</t>
         </is>
       </c>
     </row>
@@ -22040,12 +22072,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_code_pulldown.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_toggle_readonly.rst</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>コード値プルダウン入力項目ウィジェット</t>
+          <t>readonly 項目切替えイベントアクション</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -22055,7 +22087,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>features/tools/field-code-pulldown.json</t>
+          <t>features/tools/event-toggle-readonly.json</t>
         </is>
       </c>
     </row>
@@ -22065,12 +22097,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_code_radio.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_window_close.rst</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>コード値ラジオボタン入力項目ウィジェット</t>
+          <t>ウィンドウクローズイベントアクション</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -22080,7 +22112,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>features/tools/field-code-radio.json</t>
+          <t>features/tools/event-window-close.json</t>
         </is>
       </c>
     </row>
@@ -22090,12 +22122,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_file.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/event_write_to.rst</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>ファイル選択ウィジェット</t>
+          <t>項目内容変更イベントアクション</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -22105,7 +22137,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>features/tools/field-file.json</t>
+          <t>features/tools/event-write-to.json</t>
         </is>
       </c>
     </row>
@@ -22115,12 +22147,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_hint.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_base.rst</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>入力内容注記表示ウィジェット</t>
+          <t>入力項目ウィジェット共通テンプレート</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -22130,7 +22162,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>features/tools/field-hint.json</t>
+          <t>features/tools/field-base.json</t>
         </is>
       </c>
     </row>
@@ -22140,12 +22172,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_label.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_block.rst</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>表示項目ウィジェット</t>
+          <t>入力フォームブロック</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -22155,7 +22187,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>features/tools/field-label.json</t>
+          <t>features/tools/field-block.json</t>
         </is>
       </c>
     </row>
@@ -22165,12 +22197,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_label_block.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_calendar.rst</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>表示ブロックウィジェット</t>
+          <t>カレンダー日付入力ウィジェット</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -22180,7 +22212,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>features/tools/field-label-block.json</t>
+          <t>features/tools/field-calendar.json</t>
         </is>
       </c>
     </row>
@@ -22190,12 +22222,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_label_code.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_checkbox.rst</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>コード値表示項目ウィジェット</t>
+          <t>チェックボックス入力項目ウィジェット</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -22205,7 +22237,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>features/tools/field-label-code.json</t>
+          <t>features/tools/field-checkbox.json</t>
         </is>
       </c>
     </row>
@@ -22215,12 +22247,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_label_id_value.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_code_checkbox.rst</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>ID:値セット項目表示ウィジェット</t>
+          <t>コード値チェックボックス入力項目ウィジェット</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -22230,7 +22262,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>features/tools/field-label-id-value.json</t>
+          <t>features/tools/field-code-checkbox.json</t>
         </is>
       </c>
     </row>
@@ -22240,12 +22272,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_listbuilder.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_code_pulldown.rst</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>リストビルダー入力項目ウィジェット</t>
+          <t>コード値プルダウン入力項目ウィジェット</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -22255,7 +22287,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>features/tools/field-listbuilder.json</t>
+          <t>features/tools/field-code-pulldown.json</t>
         </is>
       </c>
     </row>
@@ -22265,12 +22297,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_password.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_code_radio.rst</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>パスワード入力ウィジェット</t>
+          <t>コード値ラジオボタン入力項目ウィジェット</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -22280,7 +22312,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>features/tools/field-password.json</t>
+          <t>features/tools/field-code-radio.json</t>
         </is>
       </c>
     </row>
@@ -22290,12 +22322,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_pulldown.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_file.rst</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>プルダウン入力項目ウィジェット</t>
+          <t>ファイル選択ウィジェット</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -22305,7 +22337,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>features/tools/field-pulldown.json</t>
+          <t>features/tools/field-file.json</t>
         </is>
       </c>
     </row>
@@ -22315,12 +22347,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_radio.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_hint.rst</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>ラジオボタン入力項目ウィジェット</t>
+          <t>入力内容注記表示ウィジェット</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -22330,7 +22362,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>features/tools/field-radio.json</t>
+          <t>features/tools/field-hint.json</t>
         </is>
       </c>
     </row>
@@ -22340,12 +22372,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_text.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_label.rst</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>単行テキスト入力項目ウィジェット</t>
+          <t>表示項目ウィジェット</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -22355,7 +22387,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>features/tools/field-text.json</t>
+          <t>features/tools/field-label.json</t>
         </is>
       </c>
     </row>
@@ -22365,12 +22397,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_textarea.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_label_block.rst</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>複数行テキスト入力項目ウィジェット</t>
+          <t>表示ブロックウィジェット</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -22380,7 +22412,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>features/tools/field-textarea.json</t>
+          <t>features/tools/field-label-block.json</t>
         </is>
       </c>
     </row>
@@ -22390,12 +22422,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_label_code.rst</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>UI部品ウィジェット一覧</t>
+          <t>コード値表示項目ウィジェット</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -22405,7 +22437,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>features/tools/reference-jsp-widgets.json</t>
+          <t>features/tools/field-label-code.json</t>
         </is>
       </c>
     </row>
@@ -22415,12 +22447,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/link_submit.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_label_id_value.rst</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>リンクウィジェット</t>
+          <t>ID:値セット項目表示ウィジェット</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -22430,7 +22462,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>features/tools/link-submit.json</t>
+          <t>features/tools/field-label-id-value.json</t>
         </is>
       </c>
     </row>
@@ -22440,12 +22472,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_author.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_listbuilder.rst</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>設計書作成者情報ウィジェット</t>
+          <t>リストビルダー入力項目ウィジェット</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -22455,7 +22487,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>features/tools/spec-author.json</t>
+          <t>features/tools/field-listbuilder.json</t>
         </is>
       </c>
     </row>
@@ -22465,12 +22497,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_condition.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_password.rst</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>画面表示パターン定義ウィジェット</t>
+          <t>パスワード入力ウィジェット</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -22480,7 +22512,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>features/tools/spec-condition.json</t>
+          <t>features/tools/field-password.json</t>
         </is>
       </c>
     </row>
@@ -22490,12 +22522,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_created_date.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_pulldown.rst</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>設計書作成日付情報ウィジェット</t>
+          <t>プルダウン入力項目ウィジェット</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -22505,7 +22537,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>features/tools/spec-created-date.json</t>
+          <t>features/tools/field-pulldown.json</t>
         </is>
       </c>
     </row>
@@ -22515,12 +22547,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_desc.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_radio.rst</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>設計情報コメントウィジェット</t>
+          <t>ラジオボタン入力項目ウィジェット</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -22530,7 +22562,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>features/tools/spec-desc.json</t>
+          <t>features/tools/field-radio.json</t>
         </is>
       </c>
     </row>
@@ -22540,12 +22572,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_layout.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_text.rst</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>画面レイアウト定義用ウィジェット</t>
+          <t>単行テキスト入力項目ウィジェット</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -22555,7 +22587,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>features/tools/spec-layout.json</t>
+          <t>features/tools/field-text.json</t>
         </is>
       </c>
     </row>
@@ -22565,12 +22597,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_updated_by.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/field_textarea.rst</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>設計書更新者情報ウィジェット</t>
+          <t>複数行テキスト入力項目ウィジェット</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -22580,7 +22612,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>features/tools/spec-updated-by.json</t>
+          <t>features/tools/field-textarea.json</t>
         </is>
       </c>
     </row>
@@ -22590,12 +22622,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_updated_date.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/index.rst</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>設計書更新日付情報ウィジェット</t>
+          <t>UI部品ウィジェット一覧</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -22605,7 +22637,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>features/tools/spec-updated-date.json</t>
+          <t>features/tools/reference-jsp-widgets.json</t>
         </is>
       </c>
     </row>
@@ -22615,12 +22647,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_validation.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/link_submit.rst</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>項目間・セマンティック精査仕様定義ウィジェット</t>
+          <t>リンクウィジェット</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -22630,7 +22662,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>features/tools/spec-validation.json</t>
+          <t>features/tools/link-submit.json</t>
         </is>
       </c>
     </row>
@@ -22640,12 +22672,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/tab_group.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_author.rst</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>タブウィジェット</t>
+          <t>設計書作成者情報ウィジェット</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -22655,7 +22687,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>features/tools/tab-group.json</t>
+          <t>features/tools/spec-author.json</t>
         </is>
       </c>
     </row>
@@ -22665,12 +22697,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/table_plain.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_condition.rst</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>一覧テーブルウィジェット</t>
+          <t>画面表示パターン定義ウィジェット</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -22680,7 +22712,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>features/tools/table-plain.json</t>
+          <t>features/tools/spec-condition.json</t>
         </is>
       </c>
     </row>
@@ -22690,12 +22722,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/table_row.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_created_date.rst</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>マルチレイアウトテーブル</t>
+          <t>設計書作成日付情報ウィジェット</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -22705,7 +22737,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>features/tools/table-row.json</t>
+          <t>features/tools/spec-created-date.json</t>
         </is>
       </c>
     </row>
@@ -22715,12 +22747,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/table_search_result.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_desc.rst</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>検索結果テーブルウィジェット</t>
+          <t>設計情報コメントウィジェット</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -22730,7 +22762,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>features/tools/table-search-result.json</t>
+          <t>features/tools/spec-desc.json</t>
         </is>
       </c>
     </row>
@@ -22740,12 +22772,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/table_treelist.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_layout.rst</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>階層(ツリー)表示テーブルウィジェット</t>
+          <t>画面レイアウト定義用ウィジェット</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -22755,7 +22787,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>features/tools/table-treelist.json</t>
+          <t>features/tools/spec-layout.json</t>
         </is>
       </c>
     </row>
@@ -22765,12 +22797,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_ui_plugin/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_updated_by.rst</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>UIプラグイン一覧</t>
+          <t>設計書更新者情報ウィジェット</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -22780,7 +22812,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>features/tools/reference-ui-plugin.json</t>
+          <t>features/tools/spec-updated-by.json</t>
         </is>
       </c>
     </row>
@@ -22790,12 +22822,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_ui_standard/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_updated_date.rst</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>UI標準修正事例一覧</t>
+          <t>設計書更新日付情報ウィジェット</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -22805,7 +22837,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>features/tools/reference-ui-standard.json</t>
+          <t>features/tools/spec-updated-date.json</t>
         </is>
       </c>
     </row>
@@ -22815,12 +22847,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/related_documents.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/spec_validation.rst</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>関連文書</t>
+          <t>項目間・セマンティック精査仕様定義ウィジェット</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -22830,7 +22862,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>features/tools/related-documents.json</t>
+          <t>features/tools/spec-validation.json</t>
         </is>
       </c>
     </row>
@@ -22840,12 +22872,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/structure/directory_layout.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/tab_group.rst</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>標準プロジェクト構成</t>
+          <t>タブウィジェット</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -22855,7 +22887,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>features/tools/directory-layout.json</t>
+          <t>features/tools/tab-group.json</t>
         </is>
       </c>
     </row>
@@ -22865,12 +22897,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/structure/plugins.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/table_plain.rst</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>UIプラグイン</t>
+          <t>一覧テーブルウィジェット</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -22880,7 +22912,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>features/tools/plugins.json</t>
+          <t>features/tools/table-plain.json</t>
         </is>
       </c>
     </row>
@@ -22890,12 +22922,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/testing.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/table_row.rst</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>基盤部品のテスト実施項目</t>
+          <t>マルチレイアウトテーブル</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -22905,7 +22937,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>features/tools/testing.json</t>
+          <t>features/tools/table-row.json</t>
         </is>
       </c>
     </row>
@@ -22915,12 +22947,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/table_search_result.rst</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>JSP/HTML作成ガイド</t>
+          <t>検索結果テーブルウィジェット</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -22930,7 +22962,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>features/tools/guide.json</t>
+          <t>features/tools/table-search-result.json</t>
         </is>
       </c>
     </row>
@@ -22940,12 +22972,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/widget_usage/create_screen_item_list.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_jsp_widgets/table_treelist.rst</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>業務画面JSPから画面項目定義を作成する</t>
+          <t>階層(ツリー)表示テーブルウィジェット</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -22955,7 +22987,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>features/tools/create-screen-item-list.json</t>
+          <t>features/tools/table-treelist.json</t>
         </is>
       </c>
     </row>
@@ -22965,12 +22997,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/widget_usage/create_with_widget.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_ui_plugin/index.rst</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>業務画面テンプレートとUI部品を使用して業務画面JSPを作成する</t>
+          <t>UIプラグイン一覧</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -22980,7 +23012,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>features/tools/create-with-widget.json</t>
+          <t>features/tools/reference-ui-plugin.json</t>
         </is>
       </c>
     </row>
@@ -22990,12 +23022,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/widget_usage/develop_environment.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/reference_ui_standard/index.rst</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>統合開発環境を使用して業務画面JSPを作成する</t>
+          <t>UI標準修正事例一覧</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -23005,7 +23037,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>features/tools/develop-environment.json</t>
+          <t>features/tools/reference-ui-standard.json</t>
         </is>
       </c>
     </row>
@@ -23015,12 +23047,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/widget_usage/project_structure.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/related_documents.rst</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>業務画面JSP作成時のディレクトリ構造</t>
+          <t>関連文書</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -23030,7 +23062,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>features/tools/project-structure.json</t>
+          <t>features/tools/related-documents.json</t>
         </is>
       </c>
     </row>
@@ -23040,12 +23072,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/widget_usage/template_list.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/structure/directory_layout.rst</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>UI部品の実装サンプルで提供しているEclipse補完テンプレート</t>
+          <t>標準プロジェクト構成</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -23055,7 +23087,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>features/tools/template-list.json</t>
+          <t>features/tools/directory-layout.json</t>
         </is>
       </c>
     </row>
@@ -23065,12 +23097,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/widget_usage/widget_list.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/structure/plugins.rst</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>UI部品の実装サンプルで提供しているウィジェットの一覧</t>
+          <t>UIプラグイン</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -23080,7 +23112,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>features/tools/widget-list.json</t>
+          <t>features/tools/plugins.json</t>
         </is>
       </c>
     </row>
@@ -23090,12 +23122,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/doc/testing.rst</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>フロントエンド上級者向けのUI開発基盤</t>
+          <t>基盤部品のテスト実施項目</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -23105,7 +23137,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>features/tools/ui-dev.json</t>
+          <t>features/tools/testing.json</t>
         </is>
       </c>
     </row>
@@ -23115,22 +23147,22 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/examples/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/index.rst</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Example</t>
+          <t>JSP/HTML作成ガイド</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>setup</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>features/setup/setup.json</t>
+          <t>features/tools/guide.json</t>
         </is>
       </c>
     </row>
@@ -23140,12 +23172,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/extension_components/etl/etl_maven_plugin.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/widget_usage/create_screen_item_list.rst</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>ETL Mavenプラグイン</t>
+          <t>業務画面JSPから画面項目定義を作成する</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -23155,7 +23187,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>features/tools/etl-maven-plugin.json</t>
+          <t>features/tools/create-screen-item-list.json</t>
         </is>
       </c>
     </row>
@@ -23165,12 +23197,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/extension_components/etl/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/widget_usage/create_with_widget.rst</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>ETL</t>
+          <t>業務画面テンプレートとUI部品を使用して業務画面JSPを作成する</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -23180,7 +23212,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>features/tools/etl.json</t>
+          <t>features/tools/create-with-widget.json</t>
         </is>
       </c>
     </row>
@@ -23190,12 +23222,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/extension_components/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/widget_usage/develop_environment.rst</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Nablarch拡張コンポーネント</t>
+          <t>統合開発環境を使用して業務画面JSPを作成する</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -23205,7 +23237,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>features/tools/extension-components.json</t>
+          <t>features/tools/develop-environment.json</t>
         </is>
       </c>
     </row>
@@ -23215,12 +23247,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/extension_components/report/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/widget_usage/project_structure.rst</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>帳票ライブラリ</t>
+          <t>業務画面JSP作成時のディレクトリ構造</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -23230,7 +23262,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>features/tools/report.json</t>
+          <t>features/tools/project-structure.json</t>
         </is>
       </c>
     </row>
@@ -23240,12 +23272,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/extension_components/workflow/doc/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/widget_usage/template_list.rst</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>ワークフローライブラリ</t>
+          <t>UI部品の実装サンプルで提供しているEclipse補完テンプレート</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -23255,7 +23287,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>features/tools/doc.json</t>
+          <t>features/tools/template-list.json</t>
         </is>
       </c>
     </row>
@@ -23265,12 +23297,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/extension_components/workflow/tool/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/guide/widget_usage/widget_list.rst</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>ワークフロー定義データ生成ツール</t>
+          <t>UI部品の実装サンプルで提供しているウィジェットの一覧</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -23280,7 +23312,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>features/tools/tool.json</t>
+          <t>features/tools/widget-list.json</t>
         </is>
       </c>
     </row>
@@ -23290,22 +23322,22 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/external_contents/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/development_tools/ui_dev/index.rst</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Nablarchでの開発に役立つコンテンツ</t>
+          <t>フロントエンド上級者向けのUI開発基盤</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/tools/ui-dev.json</t>
         </is>
       </c>
     </row>
@@ -23315,22 +23347,22 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/examples/index.rst</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Nablarch</t>
+          <t>Example</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>setup</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/setup/setup.json</t>
         </is>
       </c>
     </row>
@@ -23340,22 +23372,22 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/inquiry/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/extension_components/etl/etl_maven_plugin.rst</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>機能追加要望・改善要望</t>
+          <t>ETL Mavenプラグイン</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/tools/etl-maven-plugin.json</t>
         </is>
       </c>
     </row>
@@ -23365,22 +23397,22 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/nablarch_api/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/extension_components/etl/index.rst</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Nablarch API</t>
+          <t>ETL</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/tools/etl.json</t>
         </is>
       </c>
     </row>
@@ -23390,22 +23422,22 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/releases/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/extension_components/index.rst</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>リリース情報</t>
+          <t>Nablarch拡張コンポーネント</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>migration</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>about/migration/migration.json</t>
+          <t>features/tools/extension-components.json</t>
         </is>
       </c>
     </row>
@@ -23415,22 +23447,22 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/terms_of_use/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/extension_components/report/index.rst</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>ご利用にあたって</t>
+          <t>帳票ライブラリ</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>about/about.json</t>
+          <t>features/tools/report.json</t>
         </is>
       </c>
     </row>
@@ -23440,22 +23472,22 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-archetype-build-parent/pom.xml</t>
+          <t>nab-official/v5/nablarch-document/ja/extension_components/workflow/doc/index.rst</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>nablarch-archetype-build-parent (pom.xml)</t>
+          <t>ワークフローライブラリ</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>features/tools/doc.json</t>
         </is>
       </c>
     </row>
@@ -23465,22 +23497,22 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-archetype-parent/pom.xml</t>
+          <t>nab-official/v5/nablarch-document/ja/extension_components/workflow/tool/index.rst</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>nablarch-archetype-parent (pom.xml)</t>
+          <t>ワークフロー定義データ生成ツール</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>features/tools/tool.json</t>
         </is>
       </c>
     </row>
@@ -23490,22 +23522,22 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-batch-dbless/README.md</t>
+          <t>nab-official/v5/nablarch-document/ja/external_contents/index.rst</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>ディレクトリについての補足</t>
+          <t>Nablarchでの開発に役立つコンテンツ</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -23515,22 +23547,22 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-batch-dbless/pom.xml</t>
+          <t>nab-official/v5/nablarch-document/ja/index.rst</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>nablarch-batch-dbless (pom.xml)</t>
+          <t>Nablarch</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -23540,22 +23572,22 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-batch-ee/README.md</t>
+          <t>nab-official/v5/nablarch-document/ja/inquiry/index.rst</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>ディレクトリについての補足</t>
+          <t>機能追加要望・改善要望</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -23565,22 +23597,22 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-batch-ee/pom.xml</t>
+          <t>nab-official/v5/nablarch-document/ja/nablarch_api/index.rst</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>nablarch-batch-ee (pom.xml)</t>
+          <t>Nablarch API</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -23590,22 +23622,22 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-batch/README.md</t>
+          <t>nab-official/v5/nablarch-document/ja/releases/index.rst</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>ディレクトリについての補足</t>
+          <t>リリース情報</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>migration</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/migration/migration.json</t>
         </is>
       </c>
     </row>
@@ -23615,22 +23647,22 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-batch/pom.xml</t>
+          <t>nab-official/v5/nablarch-document/ja/terms_of_use/index.rst</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>nablarch-batch (pom.xml)</t>
+          <t>ご利用にあたって</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>archetype</t>
+          <t>about</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>features/setup/archetype.json</t>
+          <t>about/about.json</t>
         </is>
       </c>
     </row>
@@ -23640,12 +23672,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-batch-dbless/README.md</t>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-archetype-build-parent/pom.xml</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>ディレクトリについての補足</t>
+          <t>nablarch-archetype-build-parent (pom.xml)</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -23665,12 +23697,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-batch-dbless/pom.xml</t>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-archetype-parent/pom.xml</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>nablarch-container-batch-dbless (pom.xml)</t>
+          <t>nablarch-archetype-parent (pom.xml)</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -23690,7 +23722,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-batch/README.md</t>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-batch-dbless/README.md</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -23715,12 +23747,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-batch/pom.xml</t>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-batch-dbless/pom.xml</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>nablarch-container-batch (pom.xml)</t>
+          <t>nablarch-batch-dbless (pom.xml)</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -23740,7 +23772,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-jaxrs/README.md</t>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-batch-ee/README.md</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -23765,12 +23797,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-jaxrs/pom.xml</t>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-batch-ee/pom.xml</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>nablarch-container-jaxrs (pom.xml)</t>
+          <t>nablarch-batch-ee (pom.xml)</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -23790,7 +23822,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-web/README.md</t>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-batch/README.md</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -23815,12 +23847,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-web/pom.xml</t>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-batch/pom.xml</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>nablarch-container-web (pom.xml)</t>
+          <t>nablarch-batch (pom.xml)</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -23840,7 +23872,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-jaxrs/README.md</t>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-batch-dbless/README.md</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -23865,12 +23897,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-jaxrs/pom.xml</t>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-batch-dbless/pom.xml</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>nablarch-jaxrs (pom.xml)</t>
+          <t>nablarch-container-batch-dbless (pom.xml)</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -23890,7 +23922,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-web/README.md</t>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-batch/README.md</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -23915,27 +23947,227 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-batch/pom.xml</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>nablarch-container-batch (pom.xml)</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>archetype</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>features/setup/archetype.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-jaxrs/README.md</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>ディレクトリについての補足</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>archetype</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>features/setup/archetype.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-jaxrs/pom.xml</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>nablarch-container-jaxrs (pom.xml)</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>archetype</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>features/setup/archetype.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-web/README.md</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>ディレクトリについての補足</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>archetype</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>features/setup/archetype.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-container-web/pom.xml</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>nablarch-container-web (pom.xml)</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>archetype</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>features/setup/archetype.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-jaxrs/README.md</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>ディレクトリについての補足</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>archetype</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>features/setup/archetype.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-jaxrs/pom.xml</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>nablarch-jaxrs (pom.xml)</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>archetype</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>features/setup/archetype.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>nab-official/v5/nablarch-single-module-archetype/nablarch-web/README.md</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>ディレクトリについての補足</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>archetype</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>features/setup/archetype.json</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
           <t>nab-official/v5/nablarch-single-module-archetype/nablarch-web/pom.xml</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>nablarch-web (pom.xml)</t>
         </is>
       </c>
-      <c r="D382" t="inlineStr">
+      <c r="D390" t="inlineStr">
         <is>
           <t>archetype</t>
         </is>
       </c>
-      <c r="E382" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>features/setup/archetype.json</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E382"/>
+  <autoFilter ref="A1:E390"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -23946,7 +24178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23989,7 +24221,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/application_design.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/application_design.rst</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -23999,7 +24231,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24009,7 +24241,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/architecture.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/architecture.rst</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -24019,7 +24251,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24029,7 +24261,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/feature_details.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details.rst</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -24039,7 +24271,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24049,17 +24281,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/feature_details/error_processing.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/database_reader.rst</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>データベースをキューとしたメッセージングのエラー処理</t>
+          <t>データベースを入力とするChunkステップ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24069,17 +24301,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/feature_details/multiple_process.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/operation_policy.rst</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>マルチプロセス化</t>
+          <t>運用方針</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24089,17 +24321,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/getting_started.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/operator_notice_log.rst</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Getting Started</t>
+          <t>運用担当者向けのログ出力</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24109,17 +24341,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/getting_started/table_queue.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/pessimistic_lock.rst</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>テーブルキューを監視し未処理データを取り込むアプリケーションの作成</t>
+          <t>JSR352に準拠したバッチアプリケーションの悲観的ロック</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24129,17 +24361,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/db/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/progress_log.rst</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>テーブルをキューとして使ったメッセージング</t>
+          <t>進捗状況のログ出力</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DB Messaging (Resident Batch) excluded per specification</t>
+          <t>Jakarta Batch excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24149,12 +24381,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/application_design.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/run_batch_application.rst</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>アプリケーションの責務配置</t>
+          <t>JSR352バッチアプリケーションの起動</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -24169,12 +24401,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/architecture.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/getting_started/batchlet/index.rst</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>アーキテクチャ概要</t>
+          <t>対象テーブルのデータを削除するバッチの作成(Batchletステップ)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -24189,12 +24421,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/getting_started/chunk/index.rst</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>機能詳細</t>
+          <t>データを導出するバッチの作成(Chunkステップ)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -24209,12 +24441,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/database_reader.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/getting_started/getting_started.rst</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>データベースを入力とするChunkステップ</t>
+          <t>Getting Started</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -24229,12 +24461,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/operation_policy.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/index.rst</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>運用方針</t>
+          <t>JSR352に準拠したバッチアプリケーション</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -24249,17 +24481,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/operator_notice_log.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/mom/application_design.rst</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>運用担当者向けのログ出力</t>
+          <t>アプリケーションの責務配置</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>MOM Messaging excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24269,17 +24501,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/pessimistic_lock.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/mom/architecture.rst</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JSR352に準拠したバッチアプリケーションの悲観的ロック</t>
+          <t>アーキテクチャ概要</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>MOM Messaging excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24289,17 +24521,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/progress_log.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/mom/feature_details.rst</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>進捗状況のログ出力</t>
+          <t>機能詳細</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>MOM Messaging excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24309,17 +24541,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/feature_details/run_batch_application.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/mom/getting_started.rst</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>JSR352バッチアプリケーションの起動</t>
+          <t>Getting Started</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>MOM Messaging excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24329,17 +24561,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/getting_started/batchlet/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/mom/index.rst</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>対象テーブルのデータを削除するバッチの作成(Batchletステップ)</t>
+          <t>MOMによるメッセージング</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>MOM Messaging excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24349,17 +24581,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/getting_started/chunk/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/index.rst</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>データを導出するバッチの作成(Chunkステップ)</t>
+          <t>メッセージング編</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>Messaging excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24369,17 +24601,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/getting_started/getting_started.rst</t>
+          <t>nab-official/v5/nablarch-document/.textlint/test/test.rst</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Getting Started</t>
+          <t>textlintのテスト</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>Test files and tooling excluded</t>
         </is>
       </c>
     </row>
@@ -24389,17 +24621,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/batch/jsr352/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/HttpErrorHandler.rst</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JSR352に準拠したバッチアプリケーション</t>
+          <t>HTTPエラー制御ハンドラ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jakarta Batch excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24409,17 +24641,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/mom/application_design.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/SessionStoreHandler.rst</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>アプリケーションの責務配置</t>
+          <t>セッション変数保存ハンドラ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MOM Messaging excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24429,17 +24661,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/mom/architecture.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/csrf_token_verification_handler.rst</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>アーキテクチャ概要</t>
+          <t>CSRFトークン検証ハンドラ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MOM Messaging excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24449,17 +24681,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/mom/feature_details.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/forwarding_handler.rst</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>機能詳細</t>
+          <t>内部フォーワードハンドラ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MOM Messaging excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24469,17 +24701,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/mom/getting_started.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/health_check_endpoint_handler.rst</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Getting Started</t>
+          <t>ヘルスチェックエンドポイントハンドラ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MOM Messaging excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24489,17 +24721,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/mom/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/hot_deploy_handler.rst</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MOMによるメッセージング</t>
+          <t>ホットデプロイハンドラ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MOM Messaging excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24509,17 +24741,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/messaging/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/http_access_log_handler.rst</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>メッセージング編</t>
+          <t>HTTPアクセスログハンドラ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Messaging excluded per specification</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24529,17 +24761,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/.textlint/test/test.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/http_character_encoding_handler.rst</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>textlintのテスト</t>
+          <t>HTTP文字エンコード制御ハンドラ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Test files and tooling excluded</t>
+          <t>Web applications (JSP/UI) excluded per specification</t>
         </is>
       </c>
     </row>
@@ -24549,12 +24781,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/HttpErrorHandler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/http_request_java_package_mapping.rst</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HTTPエラー制御ハンドラ</t>
+          <t>HTTPリクエストディスパッチハンドラ</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -24569,12 +24801,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/SessionStoreHandler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/http_response_handler.rst</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>セッション変数保存ハンドラ</t>
+          <t>HTTPレスポンスハンドラ</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -24589,12 +24821,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/csrf_token_verification_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/http_rewrite_handler.rst</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CSRFトークン検証ハンドラ</t>
+          <t>HTTPリライトハンドラ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -24609,12 +24841,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/forwarding_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/index.rst</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>内部フォーワードハンドラ</t>
+          <t>ウェブアプリケーション専用ハンドラ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -24629,12 +24861,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/health_check_endpoint_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/keitai_access_handler.rst</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ヘルスチェックエンドポイントハンドラ</t>
+          <t>携帯端末アクセスハンドラ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -24649,12 +24881,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/hot_deploy_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/multipart_handler.rst</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ホットデプロイハンドラ</t>
+          <t>マルチパートリクエストハンドラ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -24669,12 +24901,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/http_access_log_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/nablarch_tag_handler.rst</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HTTPアクセスログハンドラ</t>
+          <t>Nablarchカスタムタグ制御ハンドラ</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -24689,12 +24921,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/http_character_encoding_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/normalize_handler.rst</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HTTP文字エンコード制御ハンドラ</t>
+          <t>ノーマライズハンドラ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -24709,12 +24941,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/http_request_java_package_mapping.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/post_resubmit_prevent_handler.rst</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HTTPリクエストディスパッチハンドラ</t>
+          <t>POST再送信防止ハンドラ</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -24729,12 +24961,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/http_response_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/resource_mapping.rst</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HTTPレスポンスハンドラ</t>
+          <t>リソースマッピングハンドラ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -24749,12 +24981,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/http_rewrite_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/secure_handler.rst</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HTTPリライトハンドラ</t>
+          <t>セキュアハンドラ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -24769,12 +25001,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/session_concurrent_access_handler.rst</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ウェブアプリケーション専用ハンドラ</t>
+          <t>セッション並行アクセスハンドラ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -24789,12 +25021,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/keitai_access_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/application_design.rst</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>携帯端末アクセスハンドラ</t>
+          <t>アプリケーションの責務配置</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -24809,12 +25041,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/multipart_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/architecture.rst</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>マルチパートリクエストハンドラ</t>
+          <t>アーキテクチャ概要</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -24829,12 +25061,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/nablarch_tag_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details.rst</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nablarchカスタムタグ制御ハンドラ</t>
+          <t>機能詳細</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -24849,12 +25081,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/normalize_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/error_message.rst</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ノーマライズハンドラ</t>
+          <t>バリデーションエラーのメッセージを画面表示する</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -24869,12 +25101,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/post_resubmit_prevent_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/forward_error_page.rst</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>POST再送信防止ハンドラ</t>
+          <t>エラー時の遷移先の指定方法</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -24889,12 +25121,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/resource_mapping.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/jsp_session.rst</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>リソースマッピングハンドラ</t>
+          <t>JSPで自動的にHTTPセッションを作成しないようにする方法</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -24909,12 +25141,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/secure_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/nablarch_servlet_context_listener.rst</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>セキュアハンドラ</t>
+          <t>Nablarchサーブレットコンテキスト初期化リスナー</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -24929,12 +25161,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/handlers/web/session_concurrent_access_handler.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/view/freemarker.rst</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>セッション並行アクセスハンドラ</t>
+          <t>FreeMarkerを使用した画面開発</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -24949,12 +25181,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/application_design.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/view/other.rst</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>アプリケーションの責務配置</t>
+          <t>その他のテンプレートエンジンを使用した画面開発</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -24969,12 +25201,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/architecture.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/web_front_controller.rst</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>アーキテクチャ概要</t>
+          <t>Webフロントコントローラ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -24989,12 +25221,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create1.rst</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>機能詳細</t>
+          <t>登録画面初期表示の作成</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -25009,12 +25241,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/error_message.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create2.rst</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>バリデーションエラーのメッセージを画面表示する</t>
+          <t>登録内容の確認</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -25029,12 +25261,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/forward_error_page.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create3.rst</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>エラー時の遷移先の指定方法</t>
+          <t>登録内容確認画面から登録画面へ戻る</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -25049,12 +25281,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/jsp_session.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create4.rst</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>JSPで自動的にHTTPセッションを作成しないようにする方法</t>
+          <t>データベースへの登録</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -25069,12 +25301,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/nablarch_servlet_context_listener.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/index.rst</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nablarchサーブレットコンテキスト初期化リスナー</t>
+          <t>登録機能の作成(ハンズオン形式)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -25089,12 +25321,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/view/freemarker.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/index.rst</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FreeMarkerを使用した画面開発</t>
+          <t>Getting Started</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -25109,12 +25341,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/view/other.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/popup/index.rst</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>その他のテンプレートエンジンを使用した画面開発</t>
+          <t>ポップアップ画面の作成</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -25129,12 +25361,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/feature_details/web_front_controller.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_bulk_update/index.rst</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Webフロントコントローラ</t>
+          <t>一括更新機能の作成</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -25149,12 +25381,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create1.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_delete/index.rst</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>登録画面初期表示の作成</t>
+          <t>削除機能の作成</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -25169,12 +25401,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create2.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_download/index.rst</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>登録内容の確認</t>
+          <t>ファイルダウンロード機能の作成</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -25189,12 +25421,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create3.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_search/index.rst</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>登録内容確認画面から登録画面へ戻る</t>
+          <t>検索機能の作成</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -25209,12 +25441,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/client_create4.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_update/index.rst</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>データベースへの登録</t>
+          <t>更新機能の作成</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -25229,12 +25461,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/client_create/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_upload/index.rst</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>登録機能の作成(ハンズオン形式)</t>
+          <t>アップロードを用いた一括登録機能の作成</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -25249,12 +25481,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/index.rst</t>
+          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/index.rst</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Getting Started</t>
+          <t>ウェブアプリケーション編</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -25263,168 +25495,8 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/popup/index.rst</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>ポップアップ画面の作成</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_bulk_update/index.rst</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>一括更新機能の作成</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_delete/index.rst</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>削除機能の作成</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_download/index.rst</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>ファイルダウンロード機能の作成</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_search/index.rst</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>検索機能の作成</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_update/index.rst</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>更新機能の作成</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/getting_started/project_upload/index.rst</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>アップロードを用いた一括登録機能の作成</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>nab-official/v5/nablarch-document/ja/application_framework/application_framework/web/index.rst</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>ウェブアプリケーション編</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Web applications (JSP/UI) excluded per specification</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D73"/>
+  <autoFilter ref="A1:D65"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>